--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForPCOS.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForPCOS.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AF227882-87D1-4FBE-938C-7B93F5990498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC7943F-3150-45F5-AD28-1187833C89F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -1358,12 +1362,14 @@
   <si>
     <t>https://www.tarladalal.com/oats-mooli-roti-zero-oil-oats-mooli-roti-22221r</t>
   </si>
+  <si>
+    <t>No of Recipes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1678,19 +1684,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:QE11"/>
+  <dimension ref="A1:QE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="BG1" sqref="BG1:HX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125"/>
-    <col min="2" max="2" customWidth="true" width="9.140625"/>
-    <col min="377" max="377" customWidth="true" width="20.28515625"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>11</v>
+      </c>
+      <c r="Y1">
+        <v>12</v>
+      </c>
+      <c r="AA1">
+        <v>13</v>
+      </c>
+      <c r="AC1">
+        <v>14</v>
+      </c>
+      <c r="AE1">
+        <v>15</v>
+      </c>
+      <c r="AG1">
+        <v>16</v>
+      </c>
+      <c r="AI1">
+        <v>17</v>
+      </c>
+      <c r="AK1">
+        <v>18</v>
+      </c>
+      <c r="AM1">
+        <v>19</v>
+      </c>
+      <c r="AO1">
+        <v>20</v>
+      </c>
+      <c r="AQ1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AU1">
+        <v>23</v>
+      </c>
+      <c r="AW1">
+        <v>24</v>
+      </c>
+      <c r="AY1">
+        <v>25</v>
+      </c>
+      <c r="BA1">
+        <v>26</v>
+      </c>
+      <c r="BC1">
+        <v>27</v>
+      </c>
+      <c r="BE1">
+        <v>28</v>
+      </c>
+    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>

--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForPCOS.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForPCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC7943F-3150-45F5-AD28-1187833C89F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047458E6-A099-449E-9979-1AA7D7BC6920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="374">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -1187,52 +1187,580 @@
     <t>https://www.tarladalal.com/oats-vegetable-and-brown-rice-khichdi-41019r</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3544</t>
-  </si>
-  <si>
-    <t>Jowar and Vegetable Porridge</t>
-  </si>
-  <si>
-    <t>Diabetes and Healthy Heart</t>
-  </si>
-  <si>
-    <t>For Jowar and Vegetable Porridge
-1/2 cup coarsely powdered peanuts
+    <t xml:space="preserve"> 38904</t>
+  </si>
+  <si>
+    <t>Bhindi in Peanut Masala</t>
+  </si>
+  <si>
+    <t>Kadai Veg</t>
+  </si>
+  <si>
+    <t>For Bhindi Peanut Masala
+2 cups chopped ladies finger (bhindi)
+1 tbsp coconut oil or oil
+a pinch of asafoetida (hing)
 salt to taste
+To Be Mixed Together For The Peanut Masala
+1/4 cup roasted and coarsely crushed peanuts
+1/4 cup grated coconut
+1/2 cup finely chopped coriander (dhania)
+1 1/2 tsp dried mango powder (amchur)
+1 tsp finely chopped green chillies
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp finely chopped garlic (lehsun)
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>Method
+For peanut masala
+To make peanut masala in a bowl mix peanuts, coconut, coriander, amchur, green chillies, coriander cumin seeds powder, garlic, haldi, salt and mix well.
+Bhindi in peanut masala
+To make bhindi peanut masala recipe, heat the oil in a kadhai, add the asafoetida and sauté on a slow flame for 15 seconds.
+Add the ladies finger, mix well and cook on a medium flame for 4 to 5 minutes or till the ladies finger are soft, while stirring occasionally.
+Add the prepared peanut masala and salt, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.
+Serve bhindi peanut masala recipe hot.</t>
+  </si>
+  <si>
+    <t>Energy 167 cal
+Protein 4.5 g
+Carbohydrates 6.5 g
+Fiber 4.1 g
+Fat 14.2 g
+Cholesterol 0 mg
+Sodium 9.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bhindi-in-peanut-masala-38904r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41905</t>
+  </si>
+  <si>
+    <t>Masala Chickpeas, Roasted Indian Kabuli Chana</t>
+  </si>
+  <si>
+    <t>High Protein Indian recipes</t>
+  </si>
+  <si>
+    <t>For Masala Chickpeas
+3 cups soaked and cooked kabuli chana (white chick peas)
+2 tbsp olive oil
+1 1/2 tsp chilli powder
+1 tsp cumin seeds (jeera) powder
+1 tsp chaat masala
+1 tsp garlic (lehsun) powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Baked masala chickpeas
+To make baked masala chickpeas, in a deep bowl put soaked and cooked chickpeas. Add olive oil and salt.
+Add the remaining spices and mix well.
+Put the chickpeas on a baking tray and spread with a spoon.
+Bake in a pre-heated oven at 180°c (360°f) for 45 minutes, turn the chickpeas over after 23 minutes.
+Cool for 10 minutes and serve.
+Roasted masala chickpeas
+To make roasted masala chickpeas, in a deep bowl put soaked and cooked chickpeas. Add olive oil and salt. Mix well.
+Transfer the mixture into a broad non-stick pan, mix it gently and cook on medium flame for 22 minutes, while stirring occasionally.
+Add the remaining spices and mix well.
+Cook on a slow flame for 2 minutes.
+Cool for 10 minutes and serve.</t>
+  </si>
+  <si>
+    <t>Energy 407 cal
+Protein 16.8 g
+Carbohydrates 59.9 g
+Fiber 27.8 g
+Fat 11.2 g
+Cholesterol 0 mg
+Sodium 23.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-chickpeas-roasted-indian-kabuli-chana-41905r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38556</t>
+  </si>
+  <si>
+    <t>Basic Vegetable Stock</t>
+  </si>
+  <si>
+    <t>Diabetic Soups</t>
+  </si>
+  <si>
+    <t>For Basic Vegetable Stock
+1/4 cup cauliflower florets
+1/4 cup roughly chopped onions
+1/4 cup roughly chopped cabbage
+1/4 cup roughly chopped carrot
+2 tbsp roughly chopped celery (ajmoda)</t>
+  </si>
+  <si>
+    <t>Method
+For basic vegetable stock
+To make the basic vegetable stock, boil 3 cups of water in a deep non-stick pan.
+Add the cauliflower, onions, cabbage, carrots and celery and boil on a high flame for 10 minutes.
+Strain the water using a strainer and discard the vegetables.
+Use the basic vegetable stock as required.</t>
+  </si>
+  <si>
+    <t>No nutritional value is found</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/basic-vegetable-stock-38556r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39905</t>
+  </si>
+  <si>
+    <t>Cauliflower Oats Tikki, Healthy Mixed Vegetable Tikki</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>For Cauliflower Oats Tikki
+2 cups finely chopped and blanched cauliflower
+1/2 cup quick cooking rolled oats
+1/2 cup oats flour , refer handy tip
+3 1/4 tsp oil
+1/2 cup finely chopped onions
+1/2 cup finely chopped and boiled french beans
+1/2 cup finely chopped and boiled carrots
+1 tsp green chilli paste
+2 tbsp finely chopped coriander (dhania)
+2 tbsp finely chopped mint leaves (phudina)
+1 1/2 tsp garam masala
+1 1/2 tsp dried mango powder (amchur)
+1/2 tsp ginger (adrak) paste
+1/2 tsp chaat masala
+salt to taste
+For Serving With Cauliflower Oats Tikki
+healthy green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For cauliflower oats tikki
+To make cauliflower oats tikki, heat 1 tsp of oil in a broad non-stick pan, add the onions and sauté on a medium flame for 2 minutes.
+Transfer the onions into a deep bowl, add the cauliflower, french beans and carrots, mix well and mash lightly using a potato masher.
+Add all the remaining ingredients, mix well and keep aside for 10 minutes. So the oats absorb all the flavours and binds well.
+Divide the mixture into 16 equal portions and shape each portion into a 50 mm. (2") flat round tikki.
+Heat the non-stick tava (griddle) and grease using ¼ tsp of oil.
+Cook each tikki on a slow flame using 1/8 tsp of oil, till they turn crisp and golden brown in colour from both the sides.
+Serve the cauliflower oats tikki immediately with healthy green chutney.
+Handy tip:
+To get ½ cup of oats flour, blend ½ cup of quick cooking rolled oats in a mixer to a smooth powder.</t>
+  </si>
+  <si>
+    <t>Energy 25 cal
+Protein 0.8 g
+Carbohydrates 2.7 g
+Fiber 0.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-oats-tikki-healthy-mixed-vegetable-tikki-39905r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42659</t>
+  </si>
+  <si>
+    <t>Vegetable Bulgur Wheat Khichdi, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Lower Blood Pressure Rice Pulao</t>
+  </si>
+  <si>
+    <t>1/2 cup broken wheat (dalia)
 1 tsp oil
-1 cup chopped mixed vegetables (french beans ,
-carrot , and cauliflower)
+1/2 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1/2 tsp finely chopped ginger (adrak)
+1 tsp finely chopped garlic (lehsun)
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+1/4 cup finely chopped cauliflower
+1/4 cup finely chopped bottle gourd (doodhi / lauki)
+1/2 tsp chilli powder
+1/8 tsp turmeric powder (haldi)
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+Put the bulgur wheat in a broad non-stick pan and dry roast on a medium flame for 2 to 3 minutes. Keep aside.
+Heat the oil in a pressure cooker, add the cumin seeds and asafoetida and saute on a medium flame for 30 seconds.
+Add the ginger, garlic and onions and saute on a medium flame for 1 minute.
+Add the tomatoes, cauliflower and bottle gourd, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
+Add the bulgur wheat, chilly powder, turmeric powder, salt and 2 cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Add 5 tbsp of water, mix well and cook on a medium flame for 1 minute while mashing the khichdi lightly.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 3.9 g
+Carbohydrates 32.2 g
+Fiber 2 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 208.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetable-bulgur-wheat-khichdi-low-salt-recipe-42659r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7462</t>
+  </si>
+  <si>
+    <t>Masala Karela</t>
+  </si>
+  <si>
+    <t>Dinner Sabzi</t>
+  </si>
+  <si>
+    <t>For Masala Karela
+2 cups deseeded and thinly sliced bitter gourd (karela)
+2 tsp oil
+To Be Mixed Together Into A Mixture
+1 cup finely chopped onions
+1/2 cup grated cauliflower
+1/4 cup finely chopped coriander (dhania)
+2 tbsp besan (bengal gram flour)
+1 tsp chilli powder
+1 tsp coriander (dhania) powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Method
+For masala karela
+To make masala karela, heat the oil in a broad non-stick pan, add the bitter gourd slices and mix well.
+Cover with a lid and cook on a medium flame for 10 to 12 minutes or till they turn brown in colour, while stirring occasionally.
+Add the prepared mixture, mix well and cook on a medium flame for another 4 to 5 minutes, while stirring occasionally.
+Serve the masala karela hot.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 2.3 g
+Carbohydrates 8.5 g
+Fiber 3.4 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 10.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-karela-7462r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42201</t>
+  </si>
+  <si>
+    <t>Rajma Vegetable Salad, Healthy Indian Rajma Lunch Salad</t>
+  </si>
+  <si>
+    <t>Healthy Indian Salads with healthy dressing</t>
+  </si>
+  <si>
+    <t>For Rajma Vegetable Salad
+1/2 cup soaked and cooked rajma (kidney beans)
+1/2 cup coloured capsicum cubes
+1/2 cup baby spinach , torn into pieces
+1/2 cup rocket leaves (arugula) , torn into pieces
+1/4 cup carrot juliennes
+1/4 cup chopped spring onions
+4 cherry tomatoes , cut into halves
+2 tbsp alfalfa sprouts
+To Be Mixed Into A Dressing
+1 tbsp extra virgin olive oil
+1/4 tsp dry red chilli flakes (paprika)
+1/4 tsp dried oregano
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For rajma vegetable salad
+To make rajma vegetable salad, combine all the ingredients in a lunch box and mix well. Carry the dressing in a separate small container.
+Just before serving, add the dressing and toss well. Serve the rajma vegetable salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 272 cal
+Protein 8.3 g
+Carbohydrates 24.3 g
+Fiber 6 g
+Fat 15.9 g
+Cholesterol 0 mg
+Sodium 34.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-vegetable-salad-healthy-indian-rajma-lunch-salad-42201r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33691</t>
+  </si>
+  <si>
+    <t>Kodri Pulao, Varagu Vegetable Millet Pulao</t>
+  </si>
+  <si>
+    <t>Healthy Lunch Work Recipes</t>
+  </si>
+  <si>
+    <t>For Kodri Pulao
+2 tsp oil
+1 tbsp chopped celery (ajmoda)
+1/2 cup chopped spring onions whites
+1/2 cup thinly diagonally cut french beans
+1/4 cup thinly sliced carrots
+1/2 cup thinly sliced coloured capsicum
+1/2 cup shredded cabbage
+1/2 cup bean sprouts
+2 1/2 cups cooked kodri (varagu)
+1 tsp soy sauce
+1 tsp vinegar
+1 cup chopped spring onion greens
+salt to taste
+For Serving
+chillies in vinegar
+chilli sauce</t>
+  </si>
+  <si>
+    <t>Method
+For kodri pulao
+To make kodri pulao, heat the oil in a non-stick kadhai, add the celery, spring onion whites, french beans carrots, capsicum, cabbage and bean sprouts, mix well and sauté on a high flame for 3 to 4 minutes while stirring continuously.
+Add the cooked kodri, soya sauce, spring onion greens, vinegar and salt, toss gently and sauté on a high flame for another minute, while stirring gently once in between.
+Serve indo chinese foxtail millet rice hot with chillies in vinegar and chilli sauce.</t>
+  </si>
+  <si>
+    <t>Energy 114 cal
+Protein 3.3 g
+Carbohydrates 19.2 g
+Fiber 4 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 96.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/kodri-pulao-varagu-vegetable-millet-pulao-33691r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38907</t>
+  </si>
+  <si>
+    <t>Cabbage Thoren</t>
+  </si>
+  <si>
+    <t>Vitamin C Rich Salads</t>
+  </si>
+  <si>
+    <t>3 cups finely shredded cabbage
+1 1/2 tsp oil
+1 tbsp urad dal (split black lentils)
+3/4 cup finely chopped onions
+2 tsp finely chopped green chillies
+6 curry leaves (kadi patta)
+2 tbsp grated coconut
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a kadhai, add the urad dal and sauté on a medium flame for 1 to 2 minutes or till they turn golden brown in colour.
+Add the onions, green chillies and curry leaves and sauté on a medium flame for 2 minutes, while stirring occasionally.
+Add the coconut and sauté on a medium flame for 1 minute.
+Add the cabbage and salt, mix well and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 82 cal
+Protein 2.4 g
+Carbohydrates 8.1 g
+Fiber 3 g
+Fat 4.4 g
+Cholesterol 0 mg
+Sodium 14.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-thoren-38907r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41654</t>
+  </si>
+  <si>
+    <t>Mixed Vegetable Thoran, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup chopped onions
+1/2 cup finely chopped carrot
+1/2 cup finely chopped french beans
+1/4 cup green peas
+1 tsp oil
 1/2 tsp mustard seeds ( rai / sarson)
-a pinch of asafoetida (hing)
-For The Topping
-2 tbsp finely chopped tomatoes
-2 tbsp finely chopped onions
-2 tbsp finely chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>Method
-For jowar and vegetable porridge
-Combine the powdered jowar, salt with 3 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
-Allow the steam to escape before opening the lid.
-Heat the oil in a deep pan and add the mustard seeds and asafoetida.
-When the mustard seeds crackle, add the mixed vegetables and sauté on a medium flame for 3 to 4 minutes.
-Add the cooked jowar mixture, 1½ cups of water and salt, mix well and simmer for 8 to 10 minutes, while stirring occasionally.
-Top with the tomato, onion and coriander and serve immediately.
-Handy tips
-To get ½ cup of coarsely ground jowar, grind ½ cup of jowar in a mixer to a coarse powder.
-If the porridge becomes too thick while serving, adjust its consistency by some adding some water.</t>
-  </si>
-  <si>
-    <t>Energy 103 cal
+1/4 tsp urad dal (split black lentils)
+2 whole dry kashmiri red chillies , broken into pieces
+2 tsp crushed garlic (lehsun)
+1/8 tsp salt
+1/2 tsp roasted and crushed cumin seeds (jeera)
+1/2 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat oil in a deep non-stick pan and add mustard seeds.
+When the seeds crackle, add the urad dal, dry red chillies and garlic and sauté on medium flame for 1 minute.
+Add the onions, carrot, french beans, green peas and salt and sauté on medium flame for 2 minutes.
+Add 2 tbsp of water and mix well. Cover it with a lid and cook on medium flame for 6 minutes, while stirring occasionally.
+Add the cumin seeds and chilli powder, mix well and cook on medium flame for 1 minute, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 55 cal
+Protein 1.7 g
+Carbohydrates 8 g
+Fiber 2.6 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 141 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-vegetable-thoran-low-salt-recipe-41654r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33776</t>
+  </si>
+  <si>
+    <t>Low Fat Paneer and Green Peas Stuffed Parathas, Diabetic Friendly</t>
+  </si>
+  <si>
+    <t>Healthy Rotis Healthy Parathas Theplas</t>
+  </si>
+  <si>
+    <t>For Low Fat Paneer and Green Peas Stuffed Parathas
+To Be Mixed Into A Stuffing
+1/2 cup crumbled low fat paneer (cottage cheese)
+1/4 cup boiled and lightly crushed green peas
+1/4 cup finely chopped coriander (dhania)
+1/4 cup finely chopped mint leaves (phudina)
+2 tsp finely chopped green chillies
+salt to taste
+Other Ingredients
+1 cup whole wheat flour (gehun ka atta)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+To make low fat paneer and green peas stuffed paratha recipe combine the whole wheat flour and salt in a deep bowl, mix well and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions.
+Roll a portion of dough into a 125 mm. (5”) diameter circle using a little whole wheat flour for rolling.
+Place one portion of the stuffing in the centre and bring together all the sides in the centre and seal tightly.
+Press it lightly to seal the stuffing, flatten the dough and roll out again into a 150 mm. (6") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the paratha using ¼ tsp of oil and cook till golden brown spots appear on both the sides.
+Repeat with the remaining dough and stuffing to make 5 more parathas.
+Serve the low fat paneer and green peas stuffed paratha recipe immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Energy 115 cal
+Protein 3 g
+Carbohydrates 19.9 g
+Fiber 2.8 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 44.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/low-fat-paneer-and-green-peas-stuffed-parathas-diabetic-friendly-33776r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41700</t>
+  </si>
+  <si>
+    <t>Grilled Baingan in Olive Oil and Sea Salt , Grilled Eggplant</t>
+  </si>
+  <si>
+    <t>Low Carb Diet</t>
+  </si>
+  <si>
+    <t>For Grilled Baingan In Olive Oil
+8 thick round brinjal (baingan / eggplant) slices
+3 tsp olive oil
+1/2 tsp sea salt (khada namak)
+1/8 tsp freshly ground black pepper (kalimirch)</t>
+  </si>
+  <si>
+    <t>Method
+For grilled baingan in olive oil
+To make grilled baingan in olive oil heat a grill pan with 2 tsp of olive oil and arrange 8 slices on it and cook one side on a medium flame for 4 to 5 minutes or till it becomes light brown in colour.
+Brush with olive oil and flip over. Then cook the other side for 4 to 5 minutes till it becomes light brown in colour.
+Sprinkle sea salt and freshly ground black pepper over it.
+Serve the healthy indian grilled baingan immediately.</t>
+  </si>
+  <si>
+    <t>Energy 30 cal
+Protein 0.7 g
+Carbohydrates 2.1 g
+Fiber 3.3 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 1.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grilled-baingan-in-olive-oil-and-sea-salt--grilled-eggplant-41700r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41218</t>
+  </si>
+  <si>
+    <t>Spicy Broccoli Subzi</t>
+  </si>
+  <si>
+    <t>Healthy Dinner Weight Loss</t>
+  </si>
+  <si>
+    <t>3 cups broccoli florets
+2 tbsp roasted chana dal (daria)
+2 tbsp urad dal (split black lentils)
+2 tsp cumin seeds (jeera)
+1 bayleaf (tejpatta)
+1/2 cup finely chopped onions
+salt to taste
+3/4 tsp chilli powder
+1/2 tsp garam masala</t>
+  </si>
+  <si>
+    <t>Method
+Combine the roasted chana dal, urad dal and 1 tsp of cumin seeds in a small non-stick pan and dry roast on a medium flame for 4 to 5 minutes.
+Cool and blend in a mixer along with 1 cup of water till smooth. Keep aside.
+Heat a deep non-stick pan on a medium flame and when it is hot, add the remaining 1 tsp of cumin seeds and bayleaf and dry roast on a medium flame for 30 seconds.
+Add the onions and dry roast on a medium flame for 2 to 3 minutes.
+Add the broccoli and salt, mix well and cook on a medium flame for 2 minutes.
+Add ½ cup of water, cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the chilli powder, garam masala and ½ cup of water, mix well and cook on a medium flame for 1 minute.
+Add the roasted chana dal-ural dal mixture and 1½ cups of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 45 cal
 Protein 3.3 g
-Carbohydrates 18.6 g
-Fiber 3.7 g
-Fat 1.7 g
+Carbohydrates 8 g
+Fiber 1.6 g
+Fat 0.3 g
 Cholesterol 0 mg
-Sodium 11 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
+Sodium 11.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spicy-broccoli-subzi-41218r</t>
   </si>
   <si>
     <t xml:space="preserve"> 6424</t>
@@ -1282,6 +1810,144 @@
     <t>https://www.tarladalal.com/masala-cauliflower-with-green-peas-sabzi-6424r</t>
   </si>
   <si>
+    <t xml:space="preserve"> 40897</t>
+  </si>
+  <si>
+    <t>Chawli and Beetroot Soup</t>
+  </si>
+  <si>
+    <t>1 1/4 cups soaked chawli (cow pea / lobhia)
+1/2 cup roughly chopped beetroot
+1 tbsp roughly chopped garlic (lehsun)
+salt and to taste
+For The Garnish
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+1/4 cup soaked and cooked chawli (cow pea / lobhia)</t>
+  </si>
+  <si>
+    <t>26 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the chawli, beetroot, garlic and 2 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer till smooth.
+Transfer the chawli-beetroot mixture into a deep non-stick pan, add the salt, pepper and 1½ cups of water, mix well and cook on a medium flame for 5 to 6 minutes, while stirring occasionally.
+Serve hot garnished with onions, tomatoes and chawli.</t>
+  </si>
+  <si>
+    <t>Energy 85 cal
+Protein 6.2 g
+Carbohydrates 14.3 g
+Fiber 4.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 11.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-and-beetroot-soup-40897r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2972</t>
+  </si>
+  <si>
+    <t>Sai Bhaji ( Pregnancy Recipe)</t>
+  </si>
+  <si>
+    <t>Protein Rich foods for Pregnancy</t>
+  </si>
+  <si>
+    <t>For Sai Bhaji
+3/4 cup chopped khatta bhaji (indian sorrel leaves)
+3 tbsp chana dal (split bengal gram) , washed and drained
+3 cups shredded spinach (palak)
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1/2 cup chopped potatoes
+1/2 cup brinjal (baingan / eggplant) cubes
+1 tsp garlic (lehsun) paste
+1/2 tsp ginger (adrak) paste
+1 tsp chilli powder
+2 tsp coriander (dhania) powder
+a pinch of turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>22 mins</t>
+  </si>
+  <si>
+    <t>Method
+For sai bhaji
+To make sai bhaji, combine the chana dal with 1 cup of water in a pressure cooker and pressure cook for 1 whistle.
+Allow the steam to escape before opening the lid. Drain and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds.
+When the seeds crackle, add the onions, potatoes, brinjal and ginger paste and garlic paste and sauté on a medium flame for 2 minutes.
+Add the chilli powder, coriander powder and turmeric powder and sauté on a medium flame for 1 more minute.
+Add the spinach, khatta bhaji, cooked chana dal, salt and ½ cup of water, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve the sai bhaji hot.
+Handy tip
+Khatta bhaji is available at most vegetable vendors. It looks like a smaller version of spinach leaves and the leaves are slightly sour in taste.</t>
+  </si>
+  <si>
+    <t>Energy 155 cal
+Protein 6 g
+Carbohydrates 22.2 g
+Fiber 6.5 g
+Fat 4.9 g
+Cholesterol 0 mg
+Sodium 51.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sai-bhaji--pregnancy-recipe-2972r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1369</t>
+  </si>
+  <si>
+    <t>Spinach and Vegetable Delight</t>
+  </si>
+  <si>
+    <t>Cancer Lunch</t>
+  </si>
+  <si>
+    <t>2 tbsp soaked and boiled chana dal (split bengal gram)
+2 tsp oil
+1/4 cup chopped onions
+1/2 cup chopped and boiled mixed vegetables (French beans, carrots, cauliflower, green peas)
+1/4 cup chopped tomatoes
+25 ginger (adrak) , finely chopped
+1/4 tsp green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tsp coriander (dhania) powder
+1/2 tsp chilli powder
+salt to taste
+2 cups chopped spinach (palak)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick pan, add the onions and sauté on a medium flame for 2 to 3 minutes.
+Add the mixed vegetables and tomatoes and sauté on a medium flame for 2 to 3 minutes.
+Add the ginger, green chilli paste, turmeric powder, coriander powder and chilli powder and salt and mix well.
+Add the boiled dal, mix well and cook for 2 minutes.
+Add the spinach and ¼ cup of water and cook for 4 to 5 minutes, while stirring continuously.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 2.9 g
+Carbohydrates 8.1 g
+Fiber 3 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 30.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-and-vegetable-delight-1369r</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5581</t>
   </si>
   <si>
@@ -1324,43 +1990,361 @@
     <t>https://www.tarladalal.com/pyaz-ki-roti-healthy-pyaz-ka-paratha-5581r</t>
   </si>
   <si>
-    <t xml:space="preserve"> 22221</t>
-  </si>
-  <si>
-    <t>Oats Mooli Roti, Zero Oil Oats Mooli Roti</t>
-  </si>
-  <si>
-    <t>1/4 cup quick cooking rolled oats
-1/2 cup grated white radish (mooli)
-1/2 cup whole wheat flour (gehun ka atta)
-1 tbsp roasted and coarsely crushed coriander (dhania) seeds
+    <t xml:space="preserve"> 39641</t>
+  </si>
+  <si>
+    <t>Lettuce and Cauliflower Soup</t>
+  </si>
+  <si>
+    <t>For Lettuce Cauliflower Soup
+3 cups iceberg lettuce , torn into pieces
+1 cup finely chopped cauliflower
+2 tsp olive oil or oil
+1/4 cup finely chopped onions
+3 cups basic vegetable stock
+salt to taste
+freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+For lettuce cauliflower soup
+To make lettuce and cauliflower soup, heat the oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 minute.
+Add the lettuce and cauliflower and sauté on a medium flame for 2 minutes
+Add 3 cups of vegetable stock or water and salt, mix well and cook on a medium flame for 10 minutes, while stirring occasionally.
+Allow the mixture to cool completely and blend in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the pepper powder, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve lettuce and cauliflower soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 3 g
+Carbohydrates 7.8 g
+Fiber 3 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 72.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lettuce-and-cauliflower-soup-39641r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22215</t>
+  </si>
+  <si>
+    <t>Pumpkin Dry Vegetable</t>
+  </si>
+  <si>
+    <t>For Pumpkin Dry Vegetable
+4 cups red pumpkin (bhopla / kaddu) cubes
+2 tsp coconut oil or oil
+1/4 tsp cumin seeds (jeera)
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp fennel seeds (saunf)
+1/4 cup sliced onions
+1 tsp ginger (adrak) paste
+1/2 tsp coriander (dhania) powder
+1 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/2 cup chopped tomatoes
+salt to taste
+1/2 tsp dried mango powder (amchur)
+1 tsp sugar
+2 tsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For pumpkin dry vegetable
+To make pumpkin dry vegetable, heat oil in a deep non-stick pan.
+Add the cumin seeds, mustard seeds, fenugreek seeds and saunf and sauté for 10 seconds.
+Add onions, adrak paste and cook for 1 to 2 minutes.
+Add dhania powder, chilli powder, haldi and sauté for 10 seconds.
+Add kaddu, tomatoes, salt, 1 cup water and mix well.
+Cover and cook for 10 minutes, stirring occasionally.
+Add amchur, sugar, mix well and cook on medium heat for 3 minutes, stirring occasionally.
+Serve the pumpkin dry vegetable hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 66 cal
+Protein 3.2 g
+Carbohydrates 12.6 g
+Fiber 1.6 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 12.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pumpkin-dry-vegetable-22215r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22327</t>
+  </si>
+  <si>
+    <t>Oats Vegetable Khichdi, Healthy Oats Khichdi for Weight Loss</t>
+  </si>
+  <si>
+    <t>B Vitamins</t>
+  </si>
+  <si>
+    <t>For Oats Vegetable Khichdi
+1 cup quick cooking rolled oats
+1/4 cup yellow moong dal (split yellow gram)
+1/4 cup chopped carrot
+1/4 cup chopped french beans
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/4 cup finely chopped onions
+2 slit green chillies
+1/2 tsp garlic (lehsun) paste
 1/2 tsp chilli powder
 1/4 tsp turmeric powder (haldi)
-1/4 tsp dried mango powder (amchur)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For oats vegetable khichdi
+To make oats vegetable khichdi, clean, wash and soak the moong dal for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker add the cumin seeds and asafoetida and sauté for few seconds.
+Add the onions and green chillies and sauté on medium flame for 1 minute.
+Add the garlic paste, chilli powder, turmeric powder and 1 tbsp of water and sauté on a medium flame for few seconds.
+Add the oats, moong dal, carrots and french beans, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add 3 cups of hot water and salt, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve the oats vegetable khichdi immediately.</t>
+  </si>
+  <si>
+    <t>Energy 199 cal
+Protein 8.7 g
+Carbohydrates 29.5 g
+Fiber 4.8 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 10 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-vegetable-khichdi-healthy-oats-khichdi-for-weight-loss-22327r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36424</t>
+  </si>
+  <si>
+    <t>Buckwheat Dosa</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>For Buckwheat Dosas
+1 cup buckwheat (kuttu or kutti no daro)
+1/4 cup urad dal (split black lentils)
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+2 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
 salt to taste
-whole wheat flour (gehun ka atta) for rolling</t>
-  </si>
-  <si>
-    <t>Method
-Combine all the ingredients in a deep bowl and knead into a soft dough without using water.
-Divide the dough into 5 equal portions.
-Roll out a portion of the dough into 125 mm (5") diameter circle using a little whole wheat flour for rolling.
-Place the roti on a non-stick tava (griddle). Turn over in a few seconds. Cook the other side for a few more seconds.
-Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides.
-Repeat steps 3 to 5 to make 4 more rotis.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 60 cal
-Protein 2.3 g
-Carbohydrates 12.2 g
-Fiber 2.2 g
-Fat 0.5 g
+Other Ingredients For Buckwheat Dosas
+oil for greasing and cooking
+For Serving With Buckwheat Dosas
+green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For buckwheat dosas
+To make buckwheat dosas, combine the buckwheat and urad dal in a mixer and blend to a fine powder.
+Transfer the powder in a deep bowl and keep aside.
+Heat the oil in a small pan and add the mustard seeds.
+When the seeds crackle, add the asafoetida and sauté on a medium flame for a few seconds.
+Add the tempering, green chillies, coriander, salt and approximately 3 ¼ cups of water and mix well.
+Heat a non-stick tava (griddle) and grease it lightly with oil.
+Pour a ladleful of batter in a circular manner. Pour a little oil in the holes of the buckwheat dosa and cook on both the sides till golden brown in colour.
+Repeat step 7 to make 19 more buckwheat dosas.
+Serve the buckwheat dosas immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 45 cal
+Protein 1.4 g
+Carbohydrates 6.1 g
+Fiber 0.9 g
+Fat 1.7 g
 Cholesterol 0 mg
-Sodium 6.2 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-mooli-roti-zero-oil-oats-mooli-roti-22221r</t>
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/buckwheat-dosa-36424r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6222</t>
+  </si>
+  <si>
+    <t>Anti Cholesterol Shake</t>
+  </si>
+  <si>
+    <t>Low Calorie Quick Recipes</t>
+  </si>
+  <si>
+    <t>For Anti Cholesterol Shake
+2 cups chopped papaya
+3/4 cup orange segments
+3/4 cup chopped bananas
+1/4 tsp vanilla extract or vanilla essence
+20 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+For anti cholesterol shake
+To make anti cholesterol shake in a mixer, combine the papaya, orange, banana, vanilla extract or essence and 20 ice cubes.
+Blend till smooth and frothy.
+Serve anti cholesterol shake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.5 g
+Carbohydrates 23.3 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 8.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5529</t>
+  </si>
+  <si>
+    <t>Indian Oats Pancake with Jowar</t>
+  </si>
+  <si>
+    <t>Non-stick Pan</t>
+  </si>
+  <si>
+    <t>For Indian Oats Pancake With Jowar
+1/4 cup quick cooking rolled oats
+1/4 cup whole wheat flour (gehun ka atta)
+1/4 cup jowar (white millet) flour
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+salt to taste
+1 1/2 tsp ginger-green chilli paste
+2 tbsp chopped coriander (dhania)
+3 tsp peanut oil for greasing and cooking
+For Serving With Indian Oats Pancake With Jowar
+green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For indian oats pancake with jowar
+To make indian oats pancake with jowar, combine all the ingredients in a deep bowl, add approx. ¾ cup of water and mix well to make a thick batter.
+Heat a non-stick tava (griddle) and grease it lightly using ¼ tsp of oil.
+Pour a ladleful of the batter on the tava (griddle) and spread in a circular motion to make a 100 mm. (4”) diameter round pancake.
+Cook on a slow flame till it turns golden brown in colour from both the sides, using ¼ tsp of oil.
+Repeat with the remaining batter to make 3 more pancakes.
+Serve the indian oats pancake with jowar hot with the green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 71 cal
+Protein 1.7 g
+Carbohydrates 9.7 g
+Fiber 1.5 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/indian-oats-pancake-with-jowar-5529r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4623</t>
+  </si>
+  <si>
+    <t>Broccoli Broth, Healthy Clear Broccoli Carrot Soup</t>
+  </si>
+  <si>
+    <t>Kids Recipes for Increasing Immunity</t>
+  </si>
+  <si>
+    <t>For Broccoli Broth
+1 cup broccoli florets
+1 tsp olive oil
+1/2 cup thinly sliced onions
+1/2 tsp finely chopped garlic (lehsun)
+1/2 cup thinly sliced carrots
+2 tbsp finely chopped celery (ajmoda)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For broccoli broth
+To make broccoli broth, heat the olive oil in a deep non-stick pan, add the onions, garlic, carrots and celery and sauté on amedium flame for 2 to 3 minutes.
+Add the broccoli, salt and 2½ cups of hot water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the pepper and mix well.
+Serve the broccoli broth hot.</t>
+  </si>
+  <si>
+    <t>Energy 27 cal
+Protein 0.7 g
+Carbohydrates 3.4 g
+Fiber 1 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/broccoli-broth-healthy-clear-broccoli-carrot-soup-4623r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6434</t>
+  </si>
+  <si>
+    <t>Masale Wali Turai, Turai ki Sabzi</t>
+  </si>
+  <si>
+    <t>Healthy Heart Sabzi</t>
+  </si>
+  <si>
+    <t>For Masalewali Turai
+2 cups thickly sliced ridge gourd (turai)
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1/4 tsp turmeric powder (haldi)
+1 tsp grated ginger (adrak)
+1/2 tsp finely chopped green chillies
+1 3/4 cups fresh tomato pulp , refer handy tip
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder
+1 tsp dried mango powder (amchur)
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>Method
+For masalewali turai
+To make masalewali turai, heat the oil in a non-stick kadhai, add the cumin seeds and sauté on a medium flame for 30 seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the turmeric powder, ginger, green chillies and 1 tbsp of water and sauté on a medium flame for one minute.
+Add the tomato pulp, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander-cumin seeds powder, chilli powder and dried mango powder, mix well and cook on a medium flame for 1 minute.
+Add the ridge gourd and salt and mix well. Cover with a lid and cook on a medium flame for 8 minutes or till the ridge gourd is cooked, while stirring occasionally.
+Serve the masalewali turai hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 59 cal
+Protein 1.4 g
+Carbohydrates 7.2 g
+Fiber 2.8 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 15.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masale-wali-turai-turai-ki-sabzi-6434r</t>
   </si>
   <si>
     <t>No of Recipes</t>
@@ -1684,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:QE11"/>
+  <dimension ref="A2:QE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:HX1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,95 +2681,6 @@
     <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <v>6</v>
-      </c>
-      <c r="O1">
-        <v>7</v>
-      </c>
-      <c r="Q1">
-        <v>8</v>
-      </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
-      <c r="U1">
-        <v>10</v>
-      </c>
-      <c r="W1">
-        <v>11</v>
-      </c>
-      <c r="Y1">
-        <v>12</v>
-      </c>
-      <c r="AA1">
-        <v>13</v>
-      </c>
-      <c r="AC1">
-        <v>14</v>
-      </c>
-      <c r="AE1">
-        <v>15</v>
-      </c>
-      <c r="AG1">
-        <v>16</v>
-      </c>
-      <c r="AI1">
-        <v>17</v>
-      </c>
-      <c r="AK1">
-        <v>18</v>
-      </c>
-      <c r="AM1">
-        <v>19</v>
-      </c>
-      <c r="AO1">
-        <v>20</v>
-      </c>
-      <c r="AQ1">
-        <v>21</v>
-      </c>
-      <c r="AS1">
-        <v>22</v>
-      </c>
-      <c r="AU1">
-        <v>23</v>
-      </c>
-      <c r="AW1">
-        <v>24</v>
-      </c>
-      <c r="AY1">
-        <v>25</v>
-      </c>
-      <c r="BA1">
-        <v>26</v>
-      </c>
-      <c r="BC1">
-        <v>27</v>
-      </c>
-      <c r="BE1">
-        <v>28</v>
-      </c>
-    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -1863,16 +2758,112 @@
         <v>181</v>
       </c>
       <c r="AY2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA2" t="s">
         <v>189</v>
       </c>
-      <c r="BA2" t="s">
-        <v>196</v>
-      </c>
       <c r="BC2" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="BE2" t="s">
-        <v>210</v>
+        <v>35</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>324</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>330</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>337</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>351</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>358</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:447" x14ac:dyDescent="0.25">
@@ -1952,16 +2943,112 @@
         <v>182</v>
       </c>
       <c r="AY3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA3" t="s">
         <v>190</v>
       </c>
-      <c r="BA3" t="s">
-        <v>197</v>
-      </c>
       <c r="BC3" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="BE3" t="s">
-        <v>211</v>
+        <v>36</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>241</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>248</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>255</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>269</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>290</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>297</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>305</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>312</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>319</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>325</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>331</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>338</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>29</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>345</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>352</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>359</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:447" x14ac:dyDescent="0.25">
@@ -2041,16 +3128,112 @@
         <v>183</v>
       </c>
       <c r="AY4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA4" t="s">
         <v>191</v>
       </c>
-      <c r="BA4" t="s">
-        <v>198</v>
-      </c>
       <c r="BC4" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="BE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>249</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>263</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>270</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>284</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>298</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>306</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>313</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>213</v>
+      </c>
+      <c r="DA4" t="s">
         <v>183</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>332</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>339</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>30</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>353</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>360</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.25">
@@ -2130,16 +3313,112 @@
         <v>184</v>
       </c>
       <c r="AY5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA5" t="s">
         <v>192</v>
       </c>
-      <c r="BA5" t="s">
-        <v>199</v>
-      </c>
       <c r="BC5" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="BE5" t="s">
-        <v>212</v>
+        <v>38</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>264</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>278</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>291</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>299</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>307</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>314</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>320</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>326</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>333</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>340</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>38</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>347</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>354</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>361</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:447" x14ac:dyDescent="0.25">
@@ -2219,16 +3498,112 @@
         <v>55</v>
       </c>
       <c r="AY6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="s">
         <v>24</v>
       </c>
       <c r="BC6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BE6" t="s">
         <v>14</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>24</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:447" x14ac:dyDescent="0.25">
@@ -2308,16 +3683,112 @@
         <v>185</v>
       </c>
       <c r="AY7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>47</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>257</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM7" t="s">
         <v>185</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="CO7" t="s">
         <v>24</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="CQ7" t="s">
+        <v>292</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CW7" t="s">
         <v>24</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="CY7" t="s">
+        <v>93</v>
+      </c>
+      <c r="DA7" t="s">
         <v>24</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>32</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>47</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>14</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>121</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:447" x14ac:dyDescent="0.25">
@@ -2397,16 +3868,112 @@
         <v>186</v>
       </c>
       <c r="AY8" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="BC8" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="BE8" t="s">
-        <v>213</v>
+        <v>40</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>237</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>244</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>258</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>265</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>293</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>301</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>308</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>315</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>321</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>327</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>334</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>341</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>33</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>348</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>355</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>362</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.25">
@@ -2486,16 +4053,112 @@
         <v>187</v>
       </c>
       <c r="AY9" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="BC9" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="BE9" t="s">
-        <v>214</v>
+        <v>41</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>231</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>252</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>259</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>266</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>280</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>287</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>294</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>302</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>309</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>322</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>335</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>342</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>41</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>349</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>356</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>363</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.25">
@@ -2586,38 +4249,102 @@
       <c r="BE10" t="s">
         <v>18</v>
       </c>
-      <c r="BG10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CU10" s="1"/>
-      <c r="CW10" s="1"/>
-      <c r="CY10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DC10" s="1"/>
-      <c r="DE10" s="1"/>
-      <c r="DG10" s="1"/>
-      <c r="DI10" s="1"/>
-      <c r="DK10" s="1"/>
-      <c r="DM10" s="1"/>
-      <c r="DO10" s="1"/>
-      <c r="DQ10" s="1"/>
+      <c r="BG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>18</v>
+      </c>
       <c r="DS10" s="1"/>
       <c r="DU10" s="1"/>
       <c r="DW10" s="1"/>
@@ -2859,16 +4586,297 @@
         <v>188</v>
       </c>
       <c r="AY11" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="BC11" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="BE11" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>224</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>246</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>173</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>260</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>267</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>274</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>281</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>288</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>295</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>310</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>317</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>323</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>329</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>336</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>343</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>42</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>350</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>357</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>364</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>13</v>
+      </c>
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AE13">
+        <v>15</v>
+      </c>
+      <c r="AG13">
+        <v>16</v>
+      </c>
+      <c r="AI13">
+        <v>17</v>
+      </c>
+      <c r="AK13">
+        <v>18</v>
+      </c>
+      <c r="AM13">
+        <v>19</v>
+      </c>
+      <c r="AO13">
+        <v>20</v>
+      </c>
+      <c r="AQ13">
+        <v>21</v>
+      </c>
+      <c r="AS13">
+        <v>22</v>
+      </c>
+      <c r="AU13">
+        <v>23</v>
+      </c>
+      <c r="AW13">
+        <v>24</v>
+      </c>
+      <c r="AY13">
+        <v>25</v>
+      </c>
+      <c r="BA13">
+        <v>26</v>
+      </c>
+      <c r="BC13">
+        <v>27</v>
+      </c>
+      <c r="BE13">
+        <v>28</v>
+      </c>
+      <c r="BG13">
+        <v>29</v>
+      </c>
+      <c r="BI13">
+        <v>30</v>
+      </c>
+      <c r="BK13">
+        <v>31</v>
+      </c>
+      <c r="BM13">
+        <v>32</v>
+      </c>
+      <c r="BO13">
+        <v>33</v>
+      </c>
+      <c r="BQ13">
+        <v>34</v>
+      </c>
+      <c r="BS13">
+        <v>35</v>
+      </c>
+      <c r="BU13">
+        <v>36</v>
+      </c>
+      <c r="BW13">
+        <v>37</v>
+      </c>
+      <c r="BY13">
+        <v>38</v>
+      </c>
+      <c r="CA13">
+        <v>39</v>
+      </c>
+      <c r="CC13">
+        <v>40</v>
+      </c>
+      <c r="CE13">
+        <v>41</v>
+      </c>
+      <c r="CG13">
+        <v>42</v>
+      </c>
+      <c r="CI13">
+        <v>43</v>
+      </c>
+      <c r="CK13">
+        <v>44</v>
+      </c>
+      <c r="CM13">
+        <v>45</v>
+      </c>
+      <c r="CO13">
+        <v>46</v>
+      </c>
+      <c r="CQ13">
+        <v>47</v>
+      </c>
+      <c r="CS13">
+        <v>48</v>
+      </c>
+      <c r="CU13">
+        <v>49</v>
+      </c>
+      <c r="CW13">
+        <v>50</v>
+      </c>
+      <c r="CY13">
+        <v>51</v>
+      </c>
+      <c r="DA13">
+        <v>52</v>
+      </c>
+      <c r="DC13">
+        <v>53</v>
+      </c>
+      <c r="DE13">
+        <v>54</v>
+      </c>
+      <c r="DG13">
+        <v>55</v>
+      </c>
+      <c r="DI13">
+        <v>56</v>
+      </c>
+      <c r="DK13">
+        <v>57</v>
+      </c>
+      <c r="DM13">
+        <v>58</v>
+      </c>
+      <c r="DO13">
+        <v>59</v>
+      </c>
+      <c r="DQ13">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForPCOS.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForPCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047458E6-A099-449E-9979-1AA7D7BC6920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B1FB6-685B-40E9-83DF-1849CCF9E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="347">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -57,101 +57,217 @@
     <t>Targetted Morboid Condition</t>
   </si>
   <si>
-    <t xml:space="preserve"> 39683</t>
-  </si>
-  <si>
-    <t>Cabbage Masala ( Healthy Sabzi)</t>
-  </si>
-  <si>
-    <t>Diabetic Sabzis</t>
-  </si>
-  <si>
-    <t>For Cabbage Masala
-4 cups shredded cabbage
-2 tsp coconut oil or oil
-1/2 tsp cumin seeds (jeera)
-1/2 tsp mustard seeds ( rai / sarson)
-8 curry leaves (kadi patta)
-1/2 cup finely chopped onions
-1 tsp finely chopped green chillies
-1/2 tsp grated ginger (adrak)
-1/2 cup boiled green peas
-1/2 cup chopped tomatoes
-1/2 tsp turmeric powder (haldi)
+    <t xml:space="preserve"> 39641</t>
+  </si>
+  <si>
+    <t>Lettuce and Cauliflower Soup</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>For Lettuce Cauliflower Soup
+3 cups iceberg lettuce , torn into pieces
+1 cup finely chopped cauliflower
+2 tsp olive oil or oil
+1/4 cup finely chopped onions
+3 cups basic vegetable stock
 salt to taste
-2 tsp chopped coriander (dhania) for garnish</t>
+freshly ground black pepper (kalimirch) to taste</t>
   </si>
   <si>
     <t>10 mins</t>
   </si>
   <si>
-    <t>12 mins</t>
+    <t>18 mins</t>
   </si>
   <si>
     <t>Method
-For cabbage masala
-To make cabbage masala, heat the oil in a deep non-stick kadhai. Add the cumin seeds, mustard seeds and curry leaves and cook on medium heat for a few seconds.
-Add onions, green chillies, adrak and cook on medium heat for 2 to 3 minutes.
-Add cabbage, green peas, tomatoes, turmeric powder, salt and cover and cook for 8 to 10 minutes, stirring occasionally.
-Serve cabbage masala hot garnished with coriander.</t>
-  </si>
-  <si>
-    <t>Energy 74 cal
-Protein 3.2 g
-Carbohydrates 9.3 g
-Fiber 4.3 g
-Fat 2.7 g
+For lettuce cauliflower soup
+To make lettuce and cauliflower soup, heat the oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 minute.
+Add the lettuce and cauliflower and sauté on a medium flame for 2 minutes
+Add 3 cups of vegetable stock or water and salt, mix well and cook on a medium flame for 10 minutes, while stirring occasionally.
+Allow the mixture to cool completely and blend in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the pepper powder, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve lettuce and cauliflower soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 3 g
+Carbohydrates 7.8 g
+Fiber 3 g
+Fat 2.9 g
 Cholesterol 0 mg
-Sodium 19.7 mg</t>
+Sodium 72.9 mg</t>
   </si>
   <si>
     <t xml:space="preserve">PCOS recipes
 </t>
   </si>
   <si>
-    <t>https://www.tarladalal.com/cabbage-masala---healthy-sabzi-39683r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4223</t>
-  </si>
-  <si>
-    <t>Healthy Garlic Oats and Vegetable Soup, Vegetable Soup with Oats</t>
-  </si>
-  <si>
-    <t>PCOS High Fibre</t>
-  </si>
-  <si>
-    <t>For Healthy Garlic Oats and Vegetable Soup
-2 tsp finely chopped garlic (lehsun)
-1 cup chopped and boiled mixed vegetables
-1 tsp oil
+    <t>https://www.tarladalal.com/lettuce-and-cauliflower-soup-39641r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22215</t>
+  </si>
+  <si>
+    <t>Pumpkin Dry Vegetable</t>
+  </si>
+  <si>
+    <t>Healthy Indian Dinner</t>
+  </si>
+  <si>
+    <t>For Pumpkin Dry Vegetable
+4 cups red pumpkin (bhopla / kaddu) cubes
+2 tsp coconut oil or oil
+1/4 tsp cumin seeds (jeera)
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp fennel seeds (saunf)
+1/4 cup sliced onions
+1 tsp ginger (adrak) paste
+1/2 tsp coriander (dhania) powder
+1 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/2 cup chopped tomatoes
+salt to taste
+1/2 tsp dried mango powder (amchur)
+1 tsp sugar
+2 tsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+For pumpkin dry vegetable
+To make pumpkin dry vegetable, heat oil in a deep non-stick pan.
+Add the cumin seeds, mustard seeds, fenugreek seeds and saunf and sauté for 10 seconds.
+Add onions, adrak paste and cook for 1 to 2 minutes.
+Add dhania powder, chilli powder, haldi and sauté for 10 seconds.
+Add kaddu, tomatoes, salt, 1 cup water and mix well.
+Cover and cook for 10 minutes, stirring occasionally.
+Add amchur, sugar, mix well and cook on medium heat for 3 minutes, stirring occasionally.
+Serve the pumpkin dry vegetable hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 66 cal
+Protein 3.2 g
+Carbohydrates 12.6 g
+Fiber 1.6 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 12.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pumpkin-dry-vegetable-22215r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22327</t>
+  </si>
+  <si>
+    <t>Oats Vegetable Khichdi, Healthy Oats Khichdi for Weight Loss</t>
+  </si>
+  <si>
+    <t>B Vitamins</t>
+  </si>
+  <si>
+    <t>For Oats Vegetable Khichdi
+1 cup quick cooking rolled oats
+1/4 cup yellow moong dal (split yellow gram)
+1/4 cup chopped carrot
+1/4 cup chopped french beans
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
 1/4 cup finely chopped onions
-salt and to taste
-2 tbsp quick cooking rolled oats
-2 tbsp chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>15 mins</t>
+2 slit green chillies
+1/2 tsp garlic (lehsun) paste
+1/2 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>17 mins</t>
   </si>
   <si>
     <t>Method
-For healthy garlic oats and vegetable soup
-To make healthy garlic oats and vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
-Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
-Add the oats and coriander, mix well and cook on a medium flame for 4 to 6 minutes.
-Serve the healthy garlic oats and vegetable soup hot.</t>
-  </si>
-  <si>
-    <t>Energy 43 cal
-Protein 1.7 g
-Carbohydrates 5.8 g
-Fiber 1.9 g
-Fat 1.5 g
+For oats vegetable khichdi
+To make oats vegetable khichdi, clean, wash and soak the moong dal for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker add the cumin seeds and asafoetida and sauté for few seconds.
+Add the onions and green chillies and sauté on medium flame for 1 minute.
+Add the garlic paste, chilli powder, turmeric powder and 1 tbsp of water and sauté on a medium flame for few seconds.
+Add the oats, moong dal, carrots and french beans, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add 3 cups of hot water and salt, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve the oats vegetable khichdi immediately.</t>
+  </si>
+  <si>
+    <t>Energy 199 cal
+Protein 8.7 g
+Carbohydrates 29.5 g
+Fiber 4.8 g
+Fat 5.3 g
 Cholesterol 0 mg
-Sodium 8.8 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/healthy-garlic-oats-and-vegetable-soup-vegetable-soup-with-oats-4223r</t>
+Sodium 10 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-vegetable-khichdi-healthy-oats-khichdi-for-weight-loss-22327r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36424</t>
+  </si>
+  <si>
+    <t>Buckwheat Dosa</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>For Buckwheat Dosas
+1 cup buckwheat (kuttu or kutti no daro)
+1/4 cup urad dal (split black lentils)
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+2 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+Other Ingredients For Buckwheat Dosas
+oil for greasing and cooking
+For Serving With Buckwheat Dosas
+green chutney</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Method
+For buckwheat dosas
+To make buckwheat dosas, combine the buckwheat and urad dal in a mixer and blend to a fine powder.
+Transfer the powder in a deep bowl and keep aside.
+Heat the oil in a small pan and add the mustard seeds.
+When the seeds crackle, add the asafoetida and sauté on a medium flame for a few seconds.
+Add the tempering, green chillies, coriander, salt and approximately 3 ¼ cups of water and mix well.
+Heat a non-stick tava (griddle) and grease it lightly with oil.
+Pour a ladleful of batter in a circular manner. Pour a little oil in the holes of the buckwheat dosa and cook on both the sides till golden brown in colour.
+Repeat step 7 to make 19 more buckwheat dosas.
+Serve the buckwheat dosas immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 45 cal
+Protein 1.4 g
+Carbohydrates 6.1 g
+Fiber 0.9 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/buckwheat-dosa-36424r</t>
   </si>
   <si>
     <t xml:space="preserve"> 5535</t>
@@ -173,15 +289,21 @@
 2 tbsp chopped coriander (dhania)</t>
   </si>
   <si>
-    <t>5 mins</t>
-  </si>
-  <si>
     <t>Method
 For garlic vegetable soup
 To make garlic vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
 Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
 Add the oats and coriander, mix well and cook on a medium flame for another 1 minute.
 Serve the garlic vegetable soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 1.7 g
+Carbohydrates 5.8 g
+Fiber 1.9 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 8.8 mg</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/garlic-vegetable-soup---healthy-heart-5535r</t>
@@ -237,6 +359,235 @@
     <t>https://www.tarladalal.com/maharashtrian-patal-bhaji-paatal-bhaji-770r</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6222</t>
+  </si>
+  <si>
+    <t>Anti Cholesterol Shake</t>
+  </si>
+  <si>
+    <t>Low Calorie Quick Recipes</t>
+  </si>
+  <si>
+    <t>For Anti Cholesterol Shake
+2 cups chopped papaya
+3/4 cup orange segments
+3/4 cup chopped bananas
+1/4 tsp vanilla extract or vanilla essence
+20 ice-cubes</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+For anti cholesterol shake
+To make anti cholesterol shake in a mixer, combine the papaya, orange, banana, vanilla extract or essence and 20 ice cubes.
+Blend till smooth and frothy.
+Serve anti cholesterol shake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.5 g
+Carbohydrates 23.3 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 8.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5529</t>
+  </si>
+  <si>
+    <t>Indian Oats Pancake with Jowar</t>
+  </si>
+  <si>
+    <t>Non-stick Pan</t>
+  </si>
+  <si>
+    <t>For Indian Oats Pancake With Jowar
+1/4 cup quick cooking rolled oats
+1/4 cup whole wheat flour (gehun ka atta)
+1/4 cup jowar (white millet) flour
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+salt to taste
+1 1/2 tsp ginger-green chilli paste
+2 tbsp chopped coriander (dhania)
+3 tsp peanut oil for greasing and cooking
+For Serving With Indian Oats Pancake With Jowar
+green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For indian oats pancake with jowar
+To make indian oats pancake with jowar, combine all the ingredients in a deep bowl, add approx. ¾ cup of water and mix well to make a thick batter.
+Heat a non-stick tava (griddle) and grease it lightly using ¼ tsp of oil.
+Pour a ladleful of the batter on the tava (griddle) and spread in a circular motion to make a 100 mm. (4”) diameter round pancake.
+Cook on a slow flame till it turns golden brown in colour from both the sides, using ¼ tsp of oil.
+Repeat with the remaining batter to make 3 more pancakes.
+Serve the indian oats pancake with jowar hot with the green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 71 cal
+Protein 1.7 g
+Carbohydrates 9.7 g
+Fiber 1.5 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/indian-oats-pancake-with-jowar-5529r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4623</t>
+  </si>
+  <si>
+    <t>Broccoli Broth, Healthy Clear Broccoli Carrot Soup</t>
+  </si>
+  <si>
+    <t>Kids Recipes for Increasing Immunity</t>
+  </si>
+  <si>
+    <t>For Broccoli Broth
+1 cup broccoli florets
+1 tsp olive oil
+1/2 cup thinly sliced onions
+1/2 tsp finely chopped garlic (lehsun)
+1/2 cup thinly sliced carrots
+2 tbsp finely chopped celery (ajmoda)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+For broccoli broth
+To make broccoli broth, heat the olive oil in a deep non-stick pan, add the onions, garlic, carrots and celery and sauté on amedium flame for 2 to 3 minutes.
+Add the broccoli, salt and 2½ cups of hot water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the pepper and mix well.
+Serve the broccoli broth hot.</t>
+  </si>
+  <si>
+    <t>Energy 27 cal
+Protein 0.7 g
+Carbohydrates 3.4 g
+Fiber 1 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/broccoli-broth-healthy-clear-broccoli-carrot-soup-4623r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6434</t>
+  </si>
+  <si>
+    <t>Masale Wali Turai, Turai ki Sabzi</t>
+  </si>
+  <si>
+    <t>Healthy Heart Sabzi</t>
+  </si>
+  <si>
+    <t>For Masalewali Turai
+2 cups thickly sliced ridge gourd (turai)
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1/4 tsp turmeric powder (haldi)
+1 tsp grated ginger (adrak)
+1/2 tsp finely chopped green chillies
+1 3/4 cups fresh tomato pulp , refer handy tip
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder
+1 tsp dried mango powder (amchur)
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>Method
+For masalewali turai
+To make masalewali turai, heat the oil in a non-stick kadhai, add the cumin seeds and sauté on a medium flame for 30 seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the turmeric powder, ginger, green chillies and 1 tbsp of water and sauté on a medium flame for one minute.
+Add the tomato pulp, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander-cumin seeds powder, chilli powder and dried mango powder, mix well and cook on a medium flame for 1 minute.
+Add the ridge gourd and salt and mix well. Cover with a lid and cook on a medium flame for 8 minutes or till the ridge gourd is cooked, while stirring occasionally.
+Serve the masalewali turai hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 59 cal
+Protein 1.4 g
+Carbohydrates 7.2 g
+Fiber 2.8 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 15.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masale-wali-turai-turai-ki-sabzi-6434r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42032</t>
+  </si>
+  <si>
+    <t>Rajma Brown Rice, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Healthy Heart Rice, Khichdi and Biryani</t>
+  </si>
+  <si>
+    <t>For Rajma Brown Rice
+1/2 cup rajma (kidney beans)
+3 cups soaked and cooked brown rice
+1 1/2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup sliced onions
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>Method
+For rajma brown rice
+To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the rajma brown rice hot.</t>
+  </si>
+  <si>
+    <t>Energy 165 cal
+Protein 5.2 g
+Carbohydrates 30.7 g
+Fiber 1.8 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 67.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 763</t>
   </si>
   <si>
@@ -258,9 +609,6 @@
 2 dates (khajur)
 4 walnuts (akhrot)
 5 almonds (badam)</t>
-  </si>
-  <si>
-    <t>0 mins</t>
   </si>
   <si>
     <t>Method
@@ -307,9 +655,6 @@
 2 tbsp finely chopped coriander (dhania)</t>
   </si>
   <si>
-    <t>20 mins</t>
-  </si>
-  <si>
     <t>Method
 Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
 Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
@@ -328,6 +673,212 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42162</t>
+  </si>
+  <si>
+    <t>Oats Adai, Oats Spinach Pancake</t>
+  </si>
+  <si>
+    <t>For Oats Adai
+1 cup coarsely crushed quick cooking rolled oats
+1/2 cup finely chopped spinach (palak)
+1/4 cup finely chopped onions
+1 tbsp finely chopped curry leaves (kadi patta)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+1/4 tsp turmeric powder (haldi)
+1 tsp cumin seeds (jeera)
+1/2 tsp chilli powder
+1/4 tsp asafoetida (hing)
+salt to taste
+4 tsp oil for greasing and cooking
+For Serving With Oats Adai
+green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For oats adai
+To make oats adai, combine all the ingredients in a deep bowl along with 1½ cups of water and mix well.
+Cover with a lid and keep aside for 15 minutes.
+Heat a non-stick tava (griddle), grease it with ¼ tsp of oil, pour a ladleful of the batter on the tava (griddle), spread it in a circular motion to make a 125 mm. (5") adai and cook it using ¼ tsp of oil till it turns golden brown in colour from both the sides.
+Repeat step 3 to make 7 more adais.
+Serve the oats adai immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 62 cal
+Protein 1.7 g
+Carbohydrates 6.7 g
+Fiber 1.1 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 2.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-adai-oats-spinach-pancake-42162r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3578</t>
+  </si>
+  <si>
+    <t>Sambhar</t>
+  </si>
+  <si>
+    <t>Pressure Cooker Vegetables</t>
+  </si>
+  <si>
+    <t>For the sambhar
+1 cup toovar (arhar) dal
+1 onion, chopped
+2 brinjals, cubed
+1 drumstick (saijan ki phalli / saragavo), cut into 50 mm. (2") pieces
+1 potato, cubed
+1 tomato , chopped
+1 tbsp tamarind (imli) pulp
+salt to taste
+For the sambhar masala paste
+4 to 6 whole dry kashmiri red chillies, broken into pieces
+1 tbsp coriander (dhania) seeds
+1 tsp fenugreek (methi) seeds
+1 tbsp toovar (arhar) dal
+1 tbsp chana dal (split Bengal gram)
+1 tbsp urad dal (split black lentils)
+1 tsp turmeric powder (haldi)
+1/2 tsp asafoetida (hing)
+For the tempering
+1 tsp mustard seeds ( rai / sarson)
+6 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+1 tsp oil</t>
+  </si>
+  <si>
+    <t>20 mins.</t>
+  </si>
+  <si>
+    <t>25 mins.</t>
+  </si>
+  <si>
+    <t>Method
+For the sambhar masala paste
+Roast all the ingredients in a non-stick pan for 4 to 5 minutes. Allow to cool completely.
+Grind to a fine paste in a blender using a little water. Keep aside.
+How to proceed
+Clean and wash the toovar dal.
+Pressure cook the dal, onion, brinjals, drumstick and potato with 2 cups of water.
+Then add the tomato, tamarind pulp, sambhar masala paste, salt and 4 cups of water and bring to a boil.
+Prepare the tempering by heating the oil in a non-stick pan and frying the mustard seeds, curry leaves and asafoetida until the mustard seeds crackle.
+Add to the sambhar and simmer for 10 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 151 cal
+Protein 8.4 g
+Carbohydrates 25.9 g
+Fiber 5.1 g
+Fat 1.6 g
+Cholesterol 0 mg
+Sodium 15.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sambhar-3578r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35071</t>
+  </si>
+  <si>
+    <t>Sprouted Kabuli Chana and Palak, Folic Acid Rich Recipe</t>
+  </si>
+  <si>
+    <t>Calcium Rich Indian Recipes</t>
+  </si>
+  <si>
+    <t>2 cups sprouted and cooked kabuli chana (chick peas)
+1/2 cup spinach (palak) purée
+2 tsp oil
+1 1/2 cups peeled and chopped brinjals (baingan / eggplant)
+1 cup chopped tomatoes
+1 tsp cumin seeds (jeera)
+1 small stick cinnamon (dalchini)
+2 cloves (laung / lavang)
+2 bayleaves (tejpatta)
+2 tsp chilli powder
+1 tsp coriander- cumin seeds (jeera) powder
+1 tsp garam masala
+salt to taste
+To Be Ground Into A Smooth Paste
+1 cup roughly chopped onions
+1 tbsp roughly chopped garlic (lehsun)
+1 tsp roughly chopped ginger (adrak)</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat 1 tsp of oil in a deep non-stick pan, add the brinjal and sauté on a medium flame for 5 minutes keep aside to cool.
+When cooled, blend the cooked brinjals, tomatoes and ¼ cup of water in a mixer till smooth. Keep aside.
+Heat the remaining 1 tsp oil in the same pan, add the cumin seeds, cinnamon, cloves and bay leaves and saute on a medium flame for 30 seconds.
+When the seeds crackle, add the prepared paste and sauté on a medium flame for 2 to 3 minutes.
+Add the brinjal-tomato mixture, chilli powder, coriander-cumin seeds powder, garam masala, salt and ¼ cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirirng occasionally.
+Add the spinach purée, cooked kabuli chana sprouts and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirirng occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 140 cal
+Protein 5.8 g
+Carbohydrates 21 g
+Fiber 10.5 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 28 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouted-kabuli-chana-and-palak-folic-acid-rich-recipe-35071r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42401</t>
+  </si>
+  <si>
+    <t>Pumpkin Steel Cut Oats</t>
+  </si>
+  <si>
+    <t>Marathoners, Endurance Athletes, Triathlete</t>
+  </si>
+  <si>
+    <t>For Pumpkin Steel Cut Oats
+1 cup red pumpkin (bhopla / kaddu) cubes
+1/2 cup soaked and cooked steel cut oats
+1/2 cup chopped apple , unpeeled
+a pinch of nutmeg (jaiphal)
+1/4 tsp vanilla essence
+1 tsp maple syrup
+For The Topping
+1/4 cup chopped apple , unpeeled
+1 tbsp roasted pumpkin seeds</t>
+  </si>
+  <si>
+    <t>Method
+For pumpkin steel cut oats
+To make pumpkin steel cut oats, soak the steel cut oats in a deep bowl in enough water for 8 hours. Drain well.
+Boil 1 cup of water in a deep non-stick pan, add the soaked and drained oats and mix well. Cover it with a lid and cook on a medium slow flame for 6 minutes, while stirring occasionally. Keep aside.
+Combine the red pumpkin and 1 cup of water in a deep non-stick pan, cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Cool completely and blend in a mixer till smooth.
+Transfer the mixture into a deep bowl, add all the other ingredients along with ¼ cup of warm water and mix well.
+Finally top it with the apples and pumpkin seeds.
+Serve or store the pumpkin steel cut oats in an air-tight container in the fridge and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 98 cal
+Protein 3.3 g
+Carbohydrates 18.7 g
+Fiber 2.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 16.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pumpkin-steel-cut-oats-42401r</t>
   </si>
   <si>
     <t xml:space="preserve"> 42385</t>
@@ -395,6 +946,55 @@
     <t>https://www.tarladalal.com/dal-rasam-south-indian-toovar-dal-rasam-42385r</t>
   </si>
   <si>
+    <t xml:space="preserve"> 22268</t>
+  </si>
+  <si>
+    <t>Green Moong Dal and Vegetable Idli, Healthy Moong Dal Idlis</t>
+  </si>
+  <si>
+    <t>Healthy Heart Breakfast</t>
+  </si>
+  <si>
+    <t>For Green Moong Dal Vegetable Idli
+1 cup green moong dal (split green gram)
+1/4 cup grated carrot
+1/4 cup grated cabbage
+1/4 cup urad dal (split black lentils)
+1/2 tsp fenugreek (methi) seeds
+salt to taste
+1/2 tbsp ginger-green chilli paste
+2 tbsp finely chopped coriander (dhania)
+1 tsp fruit salt
+2 tsp oil for greasing
+For Serving With Green Moong Dal Vegetable Idli
+sambhar</t>
+  </si>
+  <si>
+    <t>Method
+For green moong dal vegetable idli
+To make green moong dal vegetable idli, combine the green moong dal, urad dal and fenugreek seeds in a deep bowl and keep aside to soak in enough water for 2 hours. Drain well.
+Blend the green moong dal, urad dal and fenugreek seeds in a mixer along with approx. 1 cup of water till smooth.
+Transfer the mixture into a deep bowl, add the salt and mix well. Cover with a lid and keep aside to ferment for 4 hours or overnight.
+Once fermented, mix well, add the carrots, cabbage, ginger-green chilli paste and coriander and mix well.
+Just before steaming add 1 tsp fruit salt. Add 1 tablespoon of water over the fruit salt. Mix gently.
+Pour spoonfuls of the batter into greased idli moulds and steam in a steamer for 12 minutes.
+Cool slightly and demould.
+Repeat with the remaining batter to make more idlis.
+Serve green moong dal vegetable idli immediately with sambar.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 3 g
+Carbohydrates 7.5 g
+Fiber 1.2 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/green-moong-dal-and-vegetable-idli-healthy-moong-dal-idlis-22268r</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 33249</t>
   </si>
   <si>
@@ -490,6 +1090,402 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/spinach-dosa-41017r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32610</t>
+  </si>
+  <si>
+    <t>Rajma Kebab (100 Calorie Snacks)</t>
+  </si>
+  <si>
+    <t>Pregnancy Snacks</t>
+  </si>
+  <si>
+    <t>For Rajma Kebab
+1 cup soaked and boiled rajma (kidney beans) , lightly mashed
+2 tsp oil
+1/2 cup finely chopped onions
+1 tsp finely chopped ginger (adrak)
+1 1/2 tsp finely chopped green chillies
+2 tbsp chopped coriander (dhania)
+salt to taste
+1/4 tsp turmeric powder (haldi)
+3/4 tsp garam masala
+1/4 cup besan (bengal gram flour)
+For Serving
+green chutney</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+For rajma kebab
+To make rajma kebab, heat 1 tsp oil in a broad non-stick pan, add onions and sauté on a medium flame till they turn translucent.
+Add ginger and green chillies and sauté on a medium flame for another 30 seconds.
+Add the rajma, coriander, salt, turmeric powder, garam masala and besan, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Remove in a bowl and keep aside to cool slightly.
+Divide the mixture into 8 equal portions and shape each portion into 50 mm. (2”) oval flat kebab.
+Cook each kebab on a non-stick tava (griddle) using 1 tsp of oil till they turn golden brown in colour from both the sides.
+Serve the rajma kebab hot with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 48 cal
+Protein 2.2 g
+Carbohydrates 6.5 g
+Fiber 0.9 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 3.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-kebab-100-calorie-snacks-32610r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22219</t>
+  </si>
+  <si>
+    <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
+  </si>
+  <si>
+    <t>Healthy Indian Breakfast</t>
+  </si>
+  <si>
+    <t>For Cauliflower and Bajra Roti
+1/2 cup bajra (black millet) flour
+3/4 cup grated cauliflower
+1 1/2 tbsp finely chopped spring onions whites
+1 1/2 tbsp finely chopped spring onion greens
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp ginger-green chilli paste
+1/2 tsp grated garlic (lehsun)
+salt to taste
+Other Ingredients For Cauliflower and Bajra Roti
+bajra (black millet) flour for rolling
+1 3/4 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For cauliflower and bajra roti
+To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t>Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 6.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-and-bajra-roti-bajra-gobi-paratha-22219r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38556</t>
+  </si>
+  <si>
+    <t>Basic Vegetable Stock</t>
+  </si>
+  <si>
+    <t>Diabetic Soups</t>
+  </si>
+  <si>
+    <t>For Basic Vegetable Stock
+1/4 cup cauliflower florets
+1/4 cup roughly chopped onions
+1/4 cup roughly chopped cabbage
+1/4 cup roughly chopped carrot
+2 tbsp roughly chopped celery (ajmoda)</t>
+  </si>
+  <si>
+    <t>Method
+For basic vegetable stock
+To make the basic vegetable stock, boil 3 cups of water in a deep non-stick pan.
+Add the cauliflower, onions, cabbage, carrots and celery and boil on a high flame for 10 minutes.
+Strain the water using a strainer and discard the vegetables.
+Use the basic vegetable stock as required.</t>
+  </si>
+  <si>
+    <t>No nutritional value is found</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/basic-vegetable-stock-38556r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22216</t>
+  </si>
+  <si>
+    <t>Gajar Fansi Sabzi</t>
+  </si>
+  <si>
+    <t>Vitamin A Rich, Beta Carotene, Retinol</t>
+  </si>
+  <si>
+    <t>For Gajar Fansi Sabzi
+1 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/2 tsp garam masala
+2 cups chopped french beans
+1 cup chopped carrot
+salt to taste
+2 tbsp roasted and coarsely crushed peanuts
+2 tbsp chopped coriander (dhania)
+2 tsp coconut oil or oil</t>
+  </si>
+  <si>
+    <t>Method
+For gajar fansi sabzi
+To make gajar fansi sabzi, heat coconut oil or oil in a deep non-stick pan.
+Add the cumin seeds. After they crackle, add onions, ginger garlic paste and saute till golden brown.
+Add chilli powder, haldi, garam masala and cook for 30 seconds.
+Add french beans, carrots, 1 cup of water, salt and mix well.
+Cover with a lid and and cook on medium heat for 10 minutes till vegetables are tender.
+Add crushed peanuts, coriander and mix well.
+Cook on medium heat for 1 minute.
+Serve gajar fansi sabzi hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 102 cal
+Protein 3.3 g
+Carbohydrates 10.1 g
+Fiber 3.6 g
+Fat 5.6 g
+Cholesterol 0 mg
+Sodium 19.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gajar-fansi-sabzi-22216r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22434</t>
+  </si>
+  <si>
+    <t>Chick Pea Tikkis</t>
+  </si>
+  <si>
+    <t>Weight Loss after Pregnancy</t>
+  </si>
+  <si>
+    <t>For Chick Pea Tikkis
+2 1/2 cups soaked and boiled kabuli chana (white chick peas)
+1/2 cup chopped mint leaves (phudina)
+2 tsp finely chopped green chillies
+1/4 cup finely chopped capsicum
+1 cup grated carrot
+1/2 cup grated cabbage
+1/2 tsp grated garlic (lehsun)
+1/2 tsp roasted cumin seeds (jeera) powder
+salt to taste
+Other Ingredients For Chick Pea Tikkis
+3 1/4 tsp oil for greasing and cooking
+For Serving With Chick Pea Tikkis
+green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For chick pea tikkis
+To make chick pea tikkis, combine the kabuli chana, mint leaves and green chillies in a mixer and blend to a coarse mixture without using water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Divide the mixture into 16 equal portions and shape each portion into a 50 mm. (2") diameter round flat tikki.
+Heat and grease a non-stick tava (griddle) using ¼ tsp of oil.
+Cook each tikki, using ¼ tsp of oil, till they turn golden brown in colour from both the sides.
+Serve the chick pea tikkis immediately with green chutney.
+Handy tip:
+1 cup of raw kabuli chana (white chick peas) gives 2½ cups of soaked and boiled kabuli chana (white chick peas).</t>
+  </si>
+  <si>
+    <t>Energy 59 cal
+Protein 2.4 g
+Carbohydrates 8.6 g
+Fiber 4 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 5.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chick-pea-tikkis-22434r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40712</t>
+  </si>
+  <si>
+    <t>Moong Sprouts and Spring Onion Tikki</t>
+  </si>
+  <si>
+    <t>High Tea Party</t>
+  </si>
+  <si>
+    <t>For Moong Sprouts and Spring Onion Tikki
+1 1/2 cups parboiled sprouted moong (whole green gram)
+1/2 cup finely chopped spring onions
+2 tsp finely chopped green chillies
+1 tsp finely chopped garlic (lehsun)
+1/4 cup oats flour , refer handy tip
+salt to taste
+1 1/4 tsp oil for greasing and cooking
+For Serving With Moong Sprouts and Spring Onion Tikki
+mint and onion chutney</t>
+  </si>
+  <si>
+    <t>Method
+Blend the moong sprouts in a mixer to a coarse mixture without using any water.
+Transfer the moong sprouts mixture into a deep bowl, add all the remaining ingredients and mix well.
+Divide the mixture into 12 equal portions and roll each portion into a 37 mm. (1½”) diameter tikki.
+Heat a non-stick tava (griddle) and grease it with ¼ tsp of oil. Cook all the tikkis on it, using 1 tsp of oil, till they turn golden brown in colour from both the sides.
+Serve immediately with mint and onion chutney.
+Handy tip:
+Blend ¼ cup of quick cooking rolled oats in a mixer till smooth to get ¼ cup of oats flour.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Energy 37 cal
+Protein 2.2 g
+Carbohydrates 5.6 g
+Fiber 1.6 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-sprouts-and-spring-onion-tikki-40712r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3527</t>
+  </si>
+  <si>
+    <t>Mein Chow Soup</t>
+  </si>
+  <si>
+    <t>1 tbsp finely chopped fresh mint leaves
+1 tbsp chopped coriander (dhania)
+2 tsp chopped garlic (lehsun)
+2 tsp chopped ginger (adrak)
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped capsicum
+2 tbsp finely chopped cauliflower
+2 tbsp chopped carrots
+2 tbsp finely chopped cabbage
+1 tbsp quick cooking rolled oats
+1/2 tsp black pepper (kalimirch) powder
+1 green chilli, finely chopped
+1 tsp oil
+salt to taste
+For the topping
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>15 mins.</t>
+  </si>
+  <si>
+    <t>10 mins.</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a wok on a high flame.
+Add the mint leaves, coriander, garlic, ginger, vegetables and salt and stir fry for 2 to 3 minutes over a high flame.
+Add 4 cups of hot water, oats, salt and pepper powder and bring to a boil.
+Serve hot, garnished with the coriander.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.7 g
+Carbohydrates 4.1 g
+Fiber 1.6 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 11.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mein-chow-soup-3527r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39683</t>
+  </si>
+  <si>
+    <t>Cabbage Masala ( Healthy Sabzi)</t>
+  </si>
+  <si>
+    <t>Diabetic Sabzis</t>
+  </si>
+  <si>
+    <t>For Cabbage Masala
+4 cups shredded cabbage
+2 tsp coconut oil or oil
+1/2 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+8 curry leaves (kadi patta)
+1/2 cup finely chopped onions
+1 tsp finely chopped green chillies
+1/2 tsp grated ginger (adrak)
+1/2 cup boiled green peas
+1/2 cup chopped tomatoes
+1/2 tsp turmeric powder (haldi)
+salt to taste
+2 tsp chopped coriander (dhania) for garnish</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Method
+For cabbage masala
+To make cabbage masala, heat the oil in a deep non-stick kadhai. Add the cumin seeds, mustard seeds and curry leaves and cook on medium heat for a few seconds.
+Add onions, green chillies, adrak and cook on medium heat for 2 to 3 minutes.
+Add cabbage, green peas, tomatoes, turmeric powder, salt and cover and cook for 8 to 10 minutes, stirring occasionally.
+Serve cabbage masala hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 74 cal
+Protein 3.2 g
+Carbohydrates 9.3 g
+Fiber 4.3 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 19.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-masala---healthy-sabzi-39683r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4223</t>
+  </si>
+  <si>
+    <t>Healthy Garlic Oats and Vegetable Soup, Vegetable Soup with Oats</t>
+  </si>
+  <si>
+    <t>PCOS High Fibre</t>
+  </si>
+  <si>
+    <t>For Healthy Garlic Oats and Vegetable Soup
+2 tsp finely chopped garlic (lehsun)
+1 cup chopped and boiled mixed vegetables
+1 tsp oil
+1/4 cup finely chopped onions
+salt and to taste
+2 tbsp quick cooking rolled oats
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For healthy garlic oats and vegetable soup
+To make healthy garlic oats and vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the oats and coriander, mix well and cook on a medium flame for 4 to 6 minutes.
+Serve the healthy garlic oats and vegetable soup hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-garlic-oats-and-vegetable-soup-vegetable-soup-with-oats-4223r</t>
   </si>
   <si>
     <t xml:space="preserve"> 22144</t>
@@ -527,9 +1523,6 @@
 2 tbsp chopped coriander (dhania)</t>
   </si>
   <si>
-    <t>16 mins</t>
-  </si>
-  <si>
     <t>Method
 For the powder
 Heat a broad non-stick pan, add all the ingredients and dry roast on a medium flame for 1 minute. Keep aside and allow it to cool completely.
@@ -569,9 +1562,6 @@
 1 garlic (lehsun) clove
 1 tsp dry red chilli flakes (paprika)
 salt to taste</t>
-  </si>
-  <si>
-    <t>18 mins</t>
   </si>
   <si>
     <t>Method
@@ -595,147 +1585,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/oats-and-roasted-capsicum-soup-7437r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22219</t>
-  </si>
-  <si>
-    <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
-  </si>
-  <si>
-    <t>Healthy Indian Breakfast</t>
-  </si>
-  <si>
-    <t>For Cauliflower and Bajra Roti
-1/2 cup bajra (black millet) flour
-3/4 cup grated cauliflower
-1 1/2 tbsp finely chopped spring onions whites
-1 1/2 tbsp finely chopped spring onion greens
-2 tbsp finely chopped coriander (dhania)
-1/2 tsp ginger-green chilli paste
-1/2 tsp grated garlic (lehsun)
-salt to taste
-Other Ingredients For Cauliflower and Bajra Roti
-bajra (black millet) flour for rolling
-1 3/4 tsp oil for greasing and cooking</t>
-  </si>
-  <si>
-    <t>Method
-For cauliflower and bajra roti
-To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
-Divide the dough into 6 equal portions.
-Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
-Heat a non-stick tava (griddle) using 1/4 tsp of oil.
-Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
-Repeat steps 3 to 5 to make 5 more parathas.
-Serve the cauliflower and bajra roti immediately.</t>
-  </si>
-  <si>
-    <t>Energy 46 cal
-Protein 1.2 g
-Carbohydrates 6 g
-Fiber 1.3 g
-Fat 1.9 g
-Cholesterol 0 mg
-Sodium 6.2 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cauliflower-and-bajra-roti-bajra-gobi-paratha-22219r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38987</t>
-  </si>
-  <si>
-    <t>Oats Upma ( Breakfast Recipes)</t>
-  </si>
-  <si>
-    <t>Irritable Bowel Syndrome (IBS)</t>
-  </si>
-  <si>
-    <t>For Oats Upma
-2 cups quick cooking rolled oats
-3 tsp olive oil or oil
-1 tsp turmeric powder (haldi)
-1 tsp mustard seeds ( rai / sarson)
-1 tsp urad dal (split black lentils)
-5 to 6 curry leaves (kadi patta)
-1 whole dry kashmiri red chilli , broken into pieces
-2 green chillies , slit
-1/2 cup finely chopped onions
-1/4 cup finely chopped carrot
-1/4 cup green peas
-1 tsp sugar , optional
-salt to taste
-For The Garnish
-2 tbsp finely chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>Method
-For oats upma
-To make oats upma, heat 1 tsp of olive oil in a non-stick pan, add the oats and ½ tsp of turmeric powder and sauté on a medium flame for 3 to 4 minutes or till it turns light brown in colour, stirring occasionally. Keep aside.
-Heat the remaining 2 tsp of olive oil in a broad non-stick pan and add the mustard seeds.
-When the seeds crackle, add the urad dal, curry leaves, red chillies and green chillies and sauté on a medium flame for 1 minute.
-Add the onions and sauté on a medium flame for 1 minute or till the onions turn translucent.
-Add the carrots and green peas and sauté on a medium flame for 2 minutes.
-Add the oats mixture, sugar, salt and remaining ½ tsp of turmeric powder, mix well and cook on a medium flame for 1 minute, stirring continuously.
-Add 1½ cups of hot water, cover and cook on a slow flame for 2 minutes, stirring occasionally.
-Serve the oats upma immediately garnished with coriander.</t>
-  </si>
-  <si>
-    <t>Energy 207 cal
-Protein 7.4 g
-Carbohydrates 30.6 g
-Fiber 5.4 g
-Fat 6.4 g
-Cholesterol 0 mg
-Sodium 5.2 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-upma---breakfast-recipes-38987r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4665</t>
-  </si>
-  <si>
-    <t>Rice and Moong Dal Idli</t>
-  </si>
-  <si>
-    <t>PCOS Indian Breakfast</t>
-  </si>
-  <si>
-    <t>For Rice and Moong Dal Idli
-1/2 cup rice (chawal)
-1/2 cup green moong dal (split green gram)
-1/4 cup urad dal (split black lentils)
-1/4 tsp fenugreek (methi) seeds
-salt to taste
-For Serving With Rice and Moong Dal Idli
-sambhar
-chutney</t>
-  </si>
-  <si>
-    <t>Method
-For rice and moong dal idli
-To make rice and moong dal idli, soak the rice and green moong dal in a deep bowl with enough water for 2 hours.
-Soak the urad dal and fenugreek seeds in a deep bowl with enough water for 2 hours.
-Drain the rice and green moong dal mixture and blend in a mixer using approx. ½ cup of water till smooth.
-Drain the urad dal-fenugreek seeds in a mixer using approx. 5 tbsp of water till smooth.
-Transfer both the mixtures into a deep bowl, add the salt and mix very well.
-Cover with a lid and keep aside to ferment for 8 hours. Once fermented mix it very well.
-Put a little batter into each greased idli mould and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
-Cool the rice and moong dal idli slightly, demould and serve immediately with sambhar and chutney.</t>
-  </si>
-  <si>
-    <t>Energy 52 cal
-Protein 2.8 g
-Carbohydrates 9.9 g
-Fiber 0.9 g
-Fat 0.2 g
-Cholesterol 0 mg
-Sodium 3.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/rice-and-moong-dal-idli-4665r</t>
   </si>
   <si>
     <t xml:space="preserve"> 32849</t>
@@ -755,9 +1604,6 @@
 1 tsp grated ginger (adrak)
 salt to taste
 1/4 cup freshly grated coconut</t>
-  </si>
-  <si>
-    <t>6 mins</t>
   </si>
   <si>
     <t>Method
@@ -1142,9 +1988,6 @@
     <t>Oats, Vegetable and Brown Rice Khichdi</t>
   </si>
   <si>
-    <t>Healthy Indian Dinner</t>
-  </si>
-  <si>
     <t>For Oats , Vegetable and Brown Rice Khichdi
 1/2 cup quick cooking rolled oats
 3/4 cup brown rice
@@ -1162,9 +2005,6 @@
 salt to taste</t>
   </si>
   <si>
-    <t>25 mins</t>
-  </si>
-  <si>
     <t>Method
 Clean, wash and soak the brown rice in enough water in a deep bowl for 30 minutes. Drain well and keep aside.
 Heat the oil in a pressure cooker, add the onions, garlic paste and ginger paste and sauté on a medium flame for 1 minute.
@@ -1187,580 +2027,52 @@
     <t>https://www.tarladalal.com/oats-vegetable-and-brown-rice-khichdi-41019r</t>
   </si>
   <si>
-    <t xml:space="preserve"> 38904</t>
-  </si>
-  <si>
-    <t>Bhindi in Peanut Masala</t>
-  </si>
-  <si>
-    <t>Kadai Veg</t>
-  </si>
-  <si>
-    <t>For Bhindi Peanut Masala
-2 cups chopped ladies finger (bhindi)
-1 tbsp coconut oil or oil
+    <t xml:space="preserve"> 3544</t>
+  </si>
+  <si>
+    <t>Jowar and Vegetable Porridge</t>
+  </si>
+  <si>
+    <t>Diabetes and Healthy Heart</t>
+  </si>
+  <si>
+    <t>For Jowar and Vegetable Porridge
+1/2 cup coarsely powdered peanuts
+salt to taste
+1 tsp oil
+1 cup chopped mixed vegetables (french beans ,
+carrot , and cauliflower)
+1/2 tsp mustard seeds ( rai / sarson)
 a pinch of asafoetida (hing)
-salt to taste
-To Be Mixed Together For The Peanut Masala
-1/4 cup roasted and coarsely crushed peanuts
-1/4 cup grated coconut
-1/2 cup finely chopped coriander (dhania)
-1 1/2 tsp dried mango powder (amchur)
-1 tsp finely chopped green chillies
-2 tsp coriander-cumin seeds (dhania-jeera) powder
-1 tsp finely chopped garlic (lehsun)
-1/2 tsp turmeric powder (haldi)
-salt to taste</t>
-  </si>
-  <si>
-    <t>7 mins</t>
+For The Topping
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped onions
+2 tbsp finely chopped coriander (dhania)</t>
   </si>
   <si>
     <t>Method
-For peanut masala
-To make peanut masala in a bowl mix peanuts, coconut, coriander, amchur, green chillies, coriander cumin seeds powder, garlic, haldi, salt and mix well.
-Bhindi in peanut masala
-To make bhindi peanut masala recipe, heat the oil in a kadhai, add the asafoetida and sauté on a slow flame for 15 seconds.
-Add the ladies finger, mix well and cook on a medium flame for 4 to 5 minutes or till the ladies finger are soft, while stirring occasionally.
-Add the prepared peanut masala and salt, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.
-Serve bhindi peanut masala recipe hot.</t>
-  </si>
-  <si>
-    <t>Energy 167 cal
-Protein 4.5 g
-Carbohydrates 6.5 g
-Fiber 4.1 g
-Fat 14.2 g
+For jowar and vegetable porridge
+Combine the powdered jowar, salt with 3 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Heat the oil in a deep pan and add the mustard seeds and asafoetida.
+When the mustard seeds crackle, add the mixed vegetables and sauté on a medium flame for 3 to 4 minutes.
+Add the cooked jowar mixture, 1½ cups of water and salt, mix well and simmer for 8 to 10 minutes, while stirring occasionally.
+Top with the tomato, onion and coriander and serve immediately.
+Handy tips
+To get ½ cup of coarsely ground jowar, grind ½ cup of jowar in a mixer to a coarse powder.
+If the porridge becomes too thick while serving, adjust its consistency by some adding some water.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 3.3 g
+Carbohydrates 18.6 g
+Fiber 3.7 g
+Fat 1.7 g
 Cholesterol 0 mg
-Sodium 9.4 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bhindi-in-peanut-masala-38904r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41905</t>
-  </si>
-  <si>
-    <t>Masala Chickpeas, Roasted Indian Kabuli Chana</t>
-  </si>
-  <si>
-    <t>High Protein Indian recipes</t>
-  </si>
-  <si>
-    <t>For Masala Chickpeas
-3 cups soaked and cooked kabuli chana (white chick peas)
-2 tbsp olive oil
-1 1/2 tsp chilli powder
-1 tsp cumin seeds (jeera) powder
-1 tsp chaat masala
-1 tsp garlic (lehsun) powder
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-Baked masala chickpeas
-To make baked masala chickpeas, in a deep bowl put soaked and cooked chickpeas. Add olive oil and salt.
-Add the remaining spices and mix well.
-Put the chickpeas on a baking tray and spread with a spoon.
-Bake in a pre-heated oven at 180°c (360°f) for 45 minutes, turn the chickpeas over after 23 minutes.
-Cool for 10 minutes and serve.
-Roasted masala chickpeas
-To make roasted masala chickpeas, in a deep bowl put soaked and cooked chickpeas. Add olive oil and salt. Mix well.
-Transfer the mixture into a broad non-stick pan, mix it gently and cook on medium flame for 22 minutes, while stirring occasionally.
-Add the remaining spices and mix well.
-Cook on a slow flame for 2 minutes.
-Cool for 10 minutes and serve.</t>
-  </si>
-  <si>
-    <t>Energy 407 cal
-Protein 16.8 g
-Carbohydrates 59.9 g
-Fiber 27.8 g
-Fat 11.2 g
-Cholesterol 0 mg
-Sodium 23.7 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/masala-chickpeas-roasted-indian-kabuli-chana-41905r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38556</t>
-  </si>
-  <si>
-    <t>Basic Vegetable Stock</t>
-  </si>
-  <si>
-    <t>Diabetic Soups</t>
-  </si>
-  <si>
-    <t>For Basic Vegetable Stock
-1/4 cup cauliflower florets
-1/4 cup roughly chopped onions
-1/4 cup roughly chopped cabbage
-1/4 cup roughly chopped carrot
-2 tbsp roughly chopped celery (ajmoda)</t>
-  </si>
-  <si>
-    <t>Method
-For basic vegetable stock
-To make the basic vegetable stock, boil 3 cups of water in a deep non-stick pan.
-Add the cauliflower, onions, cabbage, carrots and celery and boil on a high flame for 10 minutes.
-Strain the water using a strainer and discard the vegetables.
-Use the basic vegetable stock as required.</t>
-  </si>
-  <si>
-    <t>No nutritional value is found</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/basic-vegetable-stock-38556r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39905</t>
-  </si>
-  <si>
-    <t>Cauliflower Oats Tikki, Healthy Mixed Vegetable Tikki</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>For Cauliflower Oats Tikki
-2 cups finely chopped and blanched cauliflower
-1/2 cup quick cooking rolled oats
-1/2 cup oats flour , refer handy tip
-3 1/4 tsp oil
-1/2 cup finely chopped onions
-1/2 cup finely chopped and boiled french beans
-1/2 cup finely chopped and boiled carrots
-1 tsp green chilli paste
-2 tbsp finely chopped coriander (dhania)
-2 tbsp finely chopped mint leaves (phudina)
-1 1/2 tsp garam masala
-1 1/2 tsp dried mango powder (amchur)
-1/2 tsp ginger (adrak) paste
-1/2 tsp chaat masala
-salt to taste
-For Serving With Cauliflower Oats Tikki
-healthy green chutney</t>
-  </si>
-  <si>
-    <t>Method
-For cauliflower oats tikki
-To make cauliflower oats tikki, heat 1 tsp of oil in a broad non-stick pan, add the onions and sauté on a medium flame for 2 minutes.
-Transfer the onions into a deep bowl, add the cauliflower, french beans and carrots, mix well and mash lightly using a potato masher.
-Add all the remaining ingredients, mix well and keep aside for 10 minutes. So the oats absorb all the flavours and binds well.
-Divide the mixture into 16 equal portions and shape each portion into a 50 mm. (2") flat round tikki.
-Heat the non-stick tava (griddle) and grease using ¼ tsp of oil.
-Cook each tikki on a slow flame using 1/8 tsp of oil, till they turn crisp and golden brown in colour from both the sides.
-Serve the cauliflower oats tikki immediately with healthy green chutney.
-Handy tip:
-To get ½ cup of oats flour, blend ½ cup of quick cooking rolled oats in a mixer to a smooth powder.</t>
-  </si>
-  <si>
-    <t>Energy 25 cal
-Protein 0.8 g
-Carbohydrates 2.7 g
-Fiber 0.8 g
-Fat 1.2 g
-Cholesterol 0 mg
-Sodium 6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cauliflower-oats-tikki-healthy-mixed-vegetable-tikki-39905r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42659</t>
-  </si>
-  <si>
-    <t>Vegetable Bulgur Wheat Khichdi, Low Salt Recipe</t>
-  </si>
-  <si>
-    <t>Lower Blood Pressure Rice Pulao</t>
-  </si>
-  <si>
-    <t>1/2 cup broken wheat (dalia)
-1 tsp oil
-1/2 tsp cumin seeds (jeera)
-a pinch of asafoetida (hing)
-1/2 tsp finely chopped ginger (adrak)
-1 tsp finely chopped garlic (lehsun)
-1/4 cup finely chopped onions
-1/4 cup finely chopped tomatoes
-1/4 cup finely chopped cauliflower
-1/4 cup finely chopped bottle gourd (doodhi / lauki)
-1/2 tsp chilli powder
-1/8 tsp turmeric powder (haldi)
-1/8 tsp salt</t>
-  </si>
-  <si>
-    <t>Method
-Put the bulgur wheat in a broad non-stick pan and dry roast on a medium flame for 2 to 3 minutes. Keep aside.
-Heat the oil in a pressure cooker, add the cumin seeds and asafoetida and saute on a medium flame for 30 seconds.
-Add the ginger, garlic and onions and saute on a medium flame for 1 minute.
-Add the tomatoes, cauliflower and bottle gourd, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
-Add the bulgur wheat, chilly powder, turmeric powder, salt and 2 cups of water, mix well and pressure cook for 3 whistles.
-Allow the steam to escape before opening the lid.
-Add 5 tbsp of water, mix well and cook on a medium flame for 1 minute while mashing the khichdi lightly.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 174 cal
-Protein 3.9 g
-Carbohydrates 32.2 g
-Fiber 2 g
-Fat 3.2 g
-Cholesterol 0 mg
-Sodium 208.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/vegetable-bulgur-wheat-khichdi-low-salt-recipe-42659r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7462</t>
-  </si>
-  <si>
-    <t>Masala Karela</t>
-  </si>
-  <si>
-    <t>Dinner Sabzi</t>
-  </si>
-  <si>
-    <t>For Masala Karela
-2 cups deseeded and thinly sliced bitter gourd (karela)
-2 tsp oil
-To Be Mixed Together Into A Mixture
-1 cup finely chopped onions
-1/2 cup grated cauliflower
-1/4 cup finely chopped coriander (dhania)
-2 tbsp besan (bengal gram flour)
-1 tsp chilli powder
-1 tsp coriander (dhania) powder
-salt to taste</t>
-  </si>
-  <si>
-    <t>17 mins</t>
-  </si>
-  <si>
-    <t>Method
-For masala karela
-To make masala karela, heat the oil in a broad non-stick pan, add the bitter gourd slices and mix well.
-Cover with a lid and cook on a medium flame for 10 to 12 minutes or till they turn brown in colour, while stirring occasionally.
-Add the prepared mixture, mix well and cook on a medium flame for another 4 to 5 minutes, while stirring occasionally.
-Serve the masala karela hot.</t>
-  </si>
-  <si>
-    <t>Energy 69 cal
-Protein 2.3 g
-Carbohydrates 8.5 g
-Fiber 3.4 g
-Fat 2.9 g
-Cholesterol 0 mg
-Sodium 10.8 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/masala-karela-7462r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42201</t>
-  </si>
-  <si>
-    <t>Rajma Vegetable Salad, Healthy Indian Rajma Lunch Salad</t>
-  </si>
-  <si>
-    <t>Healthy Indian Salads with healthy dressing</t>
-  </si>
-  <si>
-    <t>For Rajma Vegetable Salad
-1/2 cup soaked and cooked rajma (kidney beans)
-1/2 cup coloured capsicum cubes
-1/2 cup baby spinach , torn into pieces
-1/2 cup rocket leaves (arugula) , torn into pieces
-1/4 cup carrot juliennes
-1/4 cup chopped spring onions
-4 cherry tomatoes , cut into halves
-2 tbsp alfalfa sprouts
-To Be Mixed Into A Dressing
-1 tbsp extra virgin olive oil
-1/4 tsp dry red chilli flakes (paprika)
-1/4 tsp dried oregano
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-For rajma vegetable salad
-To make rajma vegetable salad, combine all the ingredients in a lunch box and mix well. Carry the dressing in a separate small container.
-Just before serving, add the dressing and toss well. Serve the rajma vegetable salad immediately.</t>
-  </si>
-  <si>
-    <t>Energy 272 cal
-Protein 8.3 g
-Carbohydrates 24.3 g
-Fiber 6 g
-Fat 15.9 g
-Cholesterol 0 mg
-Sodium 34.7 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/rajma-vegetable-salad-healthy-indian-rajma-lunch-salad-42201r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33691</t>
-  </si>
-  <si>
-    <t>Kodri Pulao, Varagu Vegetable Millet Pulao</t>
-  </si>
-  <si>
-    <t>Healthy Lunch Work Recipes</t>
-  </si>
-  <si>
-    <t>For Kodri Pulao
-2 tsp oil
-1 tbsp chopped celery (ajmoda)
-1/2 cup chopped spring onions whites
-1/2 cup thinly diagonally cut french beans
-1/4 cup thinly sliced carrots
-1/2 cup thinly sliced coloured capsicum
-1/2 cup shredded cabbage
-1/2 cup bean sprouts
-2 1/2 cups cooked kodri (varagu)
-1 tsp soy sauce
-1 tsp vinegar
-1 cup chopped spring onion greens
-salt to taste
-For Serving
-chillies in vinegar
-chilli sauce</t>
-  </si>
-  <si>
-    <t>Method
-For kodri pulao
-To make kodri pulao, heat the oil in a non-stick kadhai, add the celery, spring onion whites, french beans carrots, capsicum, cabbage and bean sprouts, mix well and sauté on a high flame for 3 to 4 minutes while stirring continuously.
-Add the cooked kodri, soya sauce, spring onion greens, vinegar and salt, toss gently and sauté on a high flame for another minute, while stirring gently once in between.
-Serve indo chinese foxtail millet rice hot with chillies in vinegar and chilli sauce.</t>
-  </si>
-  <si>
-    <t>Energy 114 cal
-Protein 3.3 g
-Carbohydrates 19.2 g
-Fiber 4 g
-Fat 2.9 g
-Cholesterol 0 mg
-Sodium 96.4 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/kodri-pulao-varagu-vegetable-millet-pulao-33691r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38907</t>
-  </si>
-  <si>
-    <t>Cabbage Thoren</t>
-  </si>
-  <si>
-    <t>Vitamin C Rich Salads</t>
-  </si>
-  <si>
-    <t>3 cups finely shredded cabbage
-1 1/2 tsp oil
-1 tbsp urad dal (split black lentils)
-3/4 cup finely chopped onions
-2 tsp finely chopped green chillies
-6 curry leaves (kadi patta)
-2 tbsp grated coconut
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-Heat the oil in a kadhai, add the urad dal and sauté on a medium flame for 1 to 2 minutes or till they turn golden brown in colour.
-Add the onions, green chillies and curry leaves and sauté on a medium flame for 2 minutes, while stirring occasionally.
-Add the coconut and sauté on a medium flame for 1 minute.
-Add the cabbage and salt, mix well and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 82 cal
-Protein 2.4 g
-Carbohydrates 8.1 g
-Fiber 3 g
-Fat 4.4 g
-Cholesterol 0 mg
-Sodium 14.4 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cabbage-thoren-38907r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41654</t>
-  </si>
-  <si>
-    <t>Mixed Vegetable Thoran, Low Salt Recipe</t>
-  </si>
-  <si>
-    <t>1/2 cup chopped onions
-1/2 cup finely chopped carrot
-1/2 cup finely chopped french beans
-1/4 cup green peas
-1 tsp oil
-1/2 tsp mustard seeds ( rai / sarson)
-1/4 tsp urad dal (split black lentils)
-2 whole dry kashmiri red chillies , broken into pieces
-2 tsp crushed garlic (lehsun)
-1/8 tsp salt
-1/2 tsp roasted and crushed cumin seeds (jeera)
-1/2 tsp chilli powder</t>
-  </si>
-  <si>
-    <t>11 mins</t>
-  </si>
-  <si>
-    <t>Method
-Heat oil in a deep non-stick pan and add mustard seeds.
-When the seeds crackle, add the urad dal, dry red chillies and garlic and sauté on medium flame for 1 minute.
-Add the onions, carrot, french beans, green peas and salt and sauté on medium flame for 2 minutes.
-Add 2 tbsp of water and mix well. Cover it with a lid and cook on medium flame for 6 minutes, while stirring occasionally.
-Add the cumin seeds and chilli powder, mix well and cook on medium flame for 1 minute, while stirring occasionally.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 55 cal
-Protein 1.7 g
-Carbohydrates 8 g
-Fiber 2.6 g
-Fat 1.8 g
-Cholesterol 0 mg
-Sodium 141 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/mixed-vegetable-thoran-low-salt-recipe-41654r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33776</t>
-  </si>
-  <si>
-    <t>Low Fat Paneer and Green Peas Stuffed Parathas, Diabetic Friendly</t>
-  </si>
-  <si>
-    <t>Healthy Rotis Healthy Parathas Theplas</t>
-  </si>
-  <si>
-    <t>For Low Fat Paneer and Green Peas Stuffed Parathas
-To Be Mixed Into A Stuffing
-1/2 cup crumbled low fat paneer (cottage cheese)
-1/4 cup boiled and lightly crushed green peas
-1/4 cup finely chopped coriander (dhania)
-1/4 cup finely chopped mint leaves (phudina)
-2 tsp finely chopped green chillies
-salt to taste
-Other Ingredients
-1 cup whole wheat flour (gehun ka atta)
-salt to taste
-whole wheat flour (gehun ka atta) for rolling
-1 1/2 tsp oil for cooking</t>
-  </si>
-  <si>
-    <t>Method
-To make low fat paneer and green peas stuffed paratha recipe combine the whole wheat flour and salt in a deep bowl, mix well and knead into a soft dough using enough water.
-Divide the dough into 6 equal portions.
-Roll a portion of dough into a 125 mm. (5”) diameter circle using a little whole wheat flour for rolling.
-Place one portion of the stuffing in the centre and bring together all the sides in the centre and seal tightly.
-Press it lightly to seal the stuffing, flatten the dough and roll out again into a 150 mm. (6") diameter circle using a little whole wheat flour for rolling.
-Heat a non-stick tava (griddle) and cook the paratha using ¼ tsp of oil and cook till golden brown spots appear on both the sides.
-Repeat with the remaining dough and stuffing to make 5 more parathas.
-Serve the low fat paneer and green peas stuffed paratha recipe immediately.
-Disclaimer:
-It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
-  </si>
-  <si>
-    <t>Energy 115 cal
-Protein 3 g
-Carbohydrates 19.9 g
-Fiber 2.8 g
-Fat 1.8 g
-Cholesterol 0 mg
-Sodium 44.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/low-fat-paneer-and-green-peas-stuffed-parathas-diabetic-friendly-33776r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41700</t>
-  </si>
-  <si>
-    <t>Grilled Baingan in Olive Oil and Sea Salt , Grilled Eggplant</t>
-  </si>
-  <si>
-    <t>Low Carb Diet</t>
-  </si>
-  <si>
-    <t>For Grilled Baingan In Olive Oil
-8 thick round brinjal (baingan / eggplant) slices
-3 tsp olive oil
-1/2 tsp sea salt (khada namak)
-1/8 tsp freshly ground black pepper (kalimirch)</t>
-  </si>
-  <si>
-    <t>Method
-For grilled baingan in olive oil
-To make grilled baingan in olive oil heat a grill pan with 2 tsp of olive oil and arrange 8 slices on it and cook one side on a medium flame for 4 to 5 minutes or till it becomes light brown in colour.
-Brush with olive oil and flip over. Then cook the other side for 4 to 5 minutes till it becomes light brown in colour.
-Sprinkle sea salt and freshly ground black pepper over it.
-Serve the healthy indian grilled baingan immediately.</t>
-  </si>
-  <si>
-    <t>Energy 30 cal
-Protein 0.7 g
-Carbohydrates 2.1 g
-Fiber 3.3 g
-Fat 2 g
-Cholesterol 0 mg
-Sodium 1.6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/grilled-baingan-in-olive-oil-and-sea-salt--grilled-eggplant-41700r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41218</t>
-  </si>
-  <si>
-    <t>Spicy Broccoli Subzi</t>
-  </si>
-  <si>
-    <t>Healthy Dinner Weight Loss</t>
-  </si>
-  <si>
-    <t>3 cups broccoli florets
-2 tbsp roasted chana dal (daria)
-2 tbsp urad dal (split black lentils)
-2 tsp cumin seeds (jeera)
-1 bayleaf (tejpatta)
-1/2 cup finely chopped onions
-salt to taste
-3/4 tsp chilli powder
-1/2 tsp garam masala</t>
-  </si>
-  <si>
-    <t>Method
-Combine the roasted chana dal, urad dal and 1 tsp of cumin seeds in a small non-stick pan and dry roast on a medium flame for 4 to 5 minutes.
-Cool and blend in a mixer along with 1 cup of water till smooth. Keep aside.
-Heat a deep non-stick pan on a medium flame and when it is hot, add the remaining 1 tsp of cumin seeds and bayleaf and dry roast on a medium flame for 30 seconds.
-Add the onions and dry roast on a medium flame for 2 to 3 minutes.
-Add the broccoli and salt, mix well and cook on a medium flame for 2 minutes.
-Add ½ cup of water, cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
-Add the chilli powder, garam masala and ½ cup of water, mix well and cook on a medium flame for 1 minute.
-Add the roasted chana dal-ural dal mixture and 1½ cups of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 45 cal
-Protein 3.3 g
-Carbohydrates 8 g
-Fiber 1.6 g
-Fat 0.3 g
-Cholesterol 0 mg
-Sodium 11.6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/spicy-broccoli-subzi-41218r</t>
+Sodium 11 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
   </si>
   <si>
     <t xml:space="preserve"> 6424</t>
@@ -1810,144 +2122,6 @@
     <t>https://www.tarladalal.com/masala-cauliflower-with-green-peas-sabzi-6424r</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40897</t>
-  </si>
-  <si>
-    <t>Chawli and Beetroot Soup</t>
-  </si>
-  <si>
-    <t>1 1/4 cups soaked chawli (cow pea / lobhia)
-1/2 cup roughly chopped beetroot
-1 tbsp roughly chopped garlic (lehsun)
-salt and to taste
-For The Garnish
-1/4 cup finely chopped onions
-1/4 cup finely chopped tomatoes
-1/4 cup soaked and cooked chawli (cow pea / lobhia)</t>
-  </si>
-  <si>
-    <t>26 mins</t>
-  </si>
-  <si>
-    <t>Method
-Combine the chawli, beetroot, garlic and 2 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
-Allow the steam to escape before opening the lid.
-Cool slightly and blend in a mixer till smooth.
-Transfer the chawli-beetroot mixture into a deep non-stick pan, add the salt, pepper and 1½ cups of water, mix well and cook on a medium flame for 5 to 6 minutes, while stirring occasionally.
-Serve hot garnished with onions, tomatoes and chawli.</t>
-  </si>
-  <si>
-    <t>Energy 85 cal
-Protein 6.2 g
-Carbohydrates 14.3 g
-Fiber 4.3 g
-Fat 0.3 g
-Cholesterol 0 mg
-Sodium 11.3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/chawli-and-beetroot-soup-40897r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2972</t>
-  </si>
-  <si>
-    <t>Sai Bhaji ( Pregnancy Recipe)</t>
-  </si>
-  <si>
-    <t>Protein Rich foods for Pregnancy</t>
-  </si>
-  <si>
-    <t>For Sai Bhaji
-3/4 cup chopped khatta bhaji (indian sorrel leaves)
-3 tbsp chana dal (split bengal gram) , washed and drained
-3 cups shredded spinach (palak)
-2 tsp oil
-1/2 tsp cumin seeds (jeera)
-1/2 cup chopped onions
-1/2 cup chopped potatoes
-1/2 cup brinjal (baingan / eggplant) cubes
-1 tsp garlic (lehsun) paste
-1/2 tsp ginger (adrak) paste
-1 tsp chilli powder
-2 tsp coriander (dhania) powder
-a pinch of turmeric powder (haldi)
-salt to taste</t>
-  </si>
-  <si>
-    <t>22 mins</t>
-  </si>
-  <si>
-    <t>Method
-For sai bhaji
-To make sai bhaji, combine the chana dal with 1 cup of water in a pressure cooker and pressure cook for 1 whistle.
-Allow the steam to escape before opening the lid. Drain and keep aside.
-Heat the oil in a pressure cooker and add the cumin seeds.
-When the seeds crackle, add the onions, potatoes, brinjal and ginger paste and garlic paste and sauté on a medium flame for 2 minutes.
-Add the chilli powder, coriander powder and turmeric powder and sauté on a medium flame for 1 more minute.
-Add the spinach, khatta bhaji, cooked chana dal, salt and ½ cup of water, mix well and pressure cook for 2 whistles.
-Allow the steam to escape before opening the lid.
-Serve the sai bhaji hot.
-Handy tip
-Khatta bhaji is available at most vegetable vendors. It looks like a smaller version of spinach leaves and the leaves are slightly sour in taste.</t>
-  </si>
-  <si>
-    <t>Energy 155 cal
-Protein 6 g
-Carbohydrates 22.2 g
-Fiber 6.5 g
-Fat 4.9 g
-Cholesterol 0 mg
-Sodium 51.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/sai-bhaji--pregnancy-recipe-2972r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1369</t>
-  </si>
-  <si>
-    <t>Spinach and Vegetable Delight</t>
-  </si>
-  <si>
-    <t>Cancer Lunch</t>
-  </si>
-  <si>
-    <t>2 tbsp soaked and boiled chana dal (split bengal gram)
-2 tsp oil
-1/4 cup chopped onions
-1/2 cup chopped and boiled mixed vegetables (French beans, carrots, cauliflower, green peas)
-1/4 cup chopped tomatoes
-25 ginger (adrak) , finely chopped
-1/4 tsp green chilli paste
-1/2 tsp turmeric powder (haldi)
-1 tsp coriander (dhania) powder
-1/2 tsp chilli powder
-salt to taste
-2 cups chopped spinach (palak)</t>
-  </si>
-  <si>
-    <t>Method
-Heat the oil in a non-stick pan, add the onions and sauté on a medium flame for 2 to 3 minutes.
-Add the mixed vegetables and tomatoes and sauté on a medium flame for 2 to 3 minutes.
-Add the ginger, green chilli paste, turmeric powder, coriander powder and chilli powder and salt and mix well.
-Add the boiled dal, mix well and cook for 2 minutes.
-Add the spinach and ¼ cup of water and cook for 4 to 5 minutes, while stirring continuously.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 73 cal
-Protein 2.9 g
-Carbohydrates 8.1 g
-Fiber 3 g
-Fat 3.2 g
-Cholesterol 0 mg
-Sodium 30.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/spinach-and-vegetable-delight-1369r</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5581</t>
   </si>
   <si>
@@ -1990,361 +2164,43 @@
     <t>https://www.tarladalal.com/pyaz-ki-roti-healthy-pyaz-ka-paratha-5581r</t>
   </si>
   <si>
-    <t xml:space="preserve"> 39641</t>
-  </si>
-  <si>
-    <t>Lettuce and Cauliflower Soup</t>
-  </si>
-  <si>
-    <t>For Lettuce Cauliflower Soup
-3 cups iceberg lettuce , torn into pieces
-1 cup finely chopped cauliflower
-2 tsp olive oil or oil
-1/4 cup finely chopped onions
-3 cups basic vegetable stock
-salt to taste
-freshly ground black pepper (kalimirch) to taste</t>
-  </si>
-  <si>
-    <t>Method
-For lettuce cauliflower soup
-To make lettuce and cauliflower soup, heat the oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 minute.
-Add the lettuce and cauliflower and sauté on a medium flame for 2 minutes
-Add 3 cups of vegetable stock or water and salt, mix well and cook on a medium flame for 10 minutes, while stirring occasionally.
-Allow the mixture to cool completely and blend in a mixer to a smooth purée.
-Transfer the purée into a deep non-stick pan, add the pepper powder, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
-Serve lettuce and cauliflower soup hot.</t>
-  </si>
-  <si>
-    <t>Energy 69 cal
-Protein 3 g
-Carbohydrates 7.8 g
-Fiber 3 g
-Fat 2.9 g
-Cholesterol 0 mg
-Sodium 72.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/lettuce-and-cauliflower-soup-39641r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22215</t>
-  </si>
-  <si>
-    <t>Pumpkin Dry Vegetable</t>
-  </si>
-  <si>
-    <t>For Pumpkin Dry Vegetable
-4 cups red pumpkin (bhopla / kaddu) cubes
-2 tsp coconut oil or oil
-1/4 tsp cumin seeds (jeera)
-1/4 tsp mustard seeds ( rai / sarson)
-1/4 tsp fenugreek (methi) seeds
-1/4 tsp fennel seeds (saunf)
-1/4 cup sliced onions
-1 tsp ginger (adrak) paste
-1/2 tsp coriander (dhania) powder
-1 tsp chilli powder
-1/2 tsp turmeric powder (haldi)
-1/2 cup chopped tomatoes
-salt to taste
-1/2 tsp dried mango powder (amchur)
-1 tsp sugar
-2 tsp chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>Method
-For pumpkin dry vegetable
-To make pumpkin dry vegetable, heat oil in a deep non-stick pan.
-Add the cumin seeds, mustard seeds, fenugreek seeds and saunf and sauté for 10 seconds.
-Add onions, adrak paste and cook for 1 to 2 minutes.
-Add dhania powder, chilli powder, haldi and sauté for 10 seconds.
-Add kaddu, tomatoes, salt, 1 cup water and mix well.
-Cover and cook for 10 minutes, stirring occasionally.
-Add amchur, sugar, mix well and cook on medium heat for 3 minutes, stirring occasionally.
-Serve the pumpkin dry vegetable hot garnished with coriander.</t>
-  </si>
-  <si>
-    <t>Energy 66 cal
-Protein 3.2 g
-Carbohydrates 12.6 g
-Fiber 1.6 g
-Fat 0.2 g
-Cholesterol 0 mg
-Sodium 12.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/pumpkin-dry-vegetable-22215r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22327</t>
-  </si>
-  <si>
-    <t>Oats Vegetable Khichdi, Healthy Oats Khichdi for Weight Loss</t>
-  </si>
-  <si>
-    <t>B Vitamins</t>
-  </si>
-  <si>
-    <t>For Oats Vegetable Khichdi
-1 cup quick cooking rolled oats
-1/4 cup yellow moong dal (split yellow gram)
-1/4 cup chopped carrot
-1/4 cup chopped french beans
-2 tsp oil
-1/2 tsp cumin seeds (jeera)
-1/4 tsp asafoetida (hing)
-1/4 cup finely chopped onions
-2 slit green chillies
-1/2 tsp garlic (lehsun) paste
+    <t xml:space="preserve"> 22221</t>
+  </si>
+  <si>
+    <t>Oats Mooli Roti, Zero Oil Oats Mooli Roti</t>
+  </si>
+  <si>
+    <t>1/4 cup quick cooking rolled oats
+1/2 cup grated white radish (mooli)
+1/2 cup whole wheat flour (gehun ka atta)
+1 tbsp roasted and coarsely crushed coriander (dhania) seeds
 1/2 tsp chilli powder
 1/4 tsp turmeric powder (haldi)
-salt to taste</t>
+1/4 tsp dried mango powder (amchur)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling</t>
   </si>
   <si>
     <t>Method
-For oats vegetable khichdi
-To make oats vegetable khichdi, clean, wash and soak the moong dal for 30 minutes. Drain well and keep aside.
-Heat the oil in a pressure cooker add the cumin seeds and asafoetida and sauté for few seconds.
-Add the onions and green chillies and sauté on medium flame for 1 minute.
-Add the garlic paste, chilli powder, turmeric powder and 1 tbsp of water and sauté on a medium flame for few seconds.
-Add the oats, moong dal, carrots and french beans, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
-Add 3 cups of hot water and salt, mix well and pressure cook for 3 whistles.
-Allow the steam to escape before opening the lid.
-Serve the oats vegetable khichdi immediately.</t>
-  </si>
-  <si>
-    <t>Energy 199 cal
-Protein 8.7 g
-Carbohydrates 29.5 g
-Fiber 4.8 g
-Fat 5.3 g
+Combine all the ingredients in a deep bowl and knead into a soft dough without using water.
+Divide the dough into 5 equal portions.
+Roll out a portion of the dough into 125 mm (5") diameter circle using a little whole wheat flour for rolling.
+Place the roti on a non-stick tava (griddle). Turn over in a few seconds. Cook the other side for a few more seconds.
+Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides.
+Repeat steps 3 to 5 to make 4 more rotis.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 60 cal
+Protein 2.3 g
+Carbohydrates 12.2 g
+Fiber 2.2 g
+Fat 0.5 g
 Cholesterol 0 mg
-Sodium 10 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-vegetable-khichdi-healthy-oats-khichdi-for-weight-loss-22327r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36424</t>
-  </si>
-  <si>
-    <t>Buckwheat Dosa</t>
-  </si>
-  <si>
-    <t>Mixer</t>
-  </si>
-  <si>
-    <t>For Buckwheat Dosas
-1 cup buckwheat (kuttu or kutti no daro)
-1/4 cup urad dal (split black lentils)
-1 tbsp oil
-1 tsp mustard seeds ( rai / sarson)
-1/4 tsp asafoetida (hing)
-2 tsp finely chopped green chillies
-2 tbsp finely chopped coriander (dhania)
-salt to taste
-Other Ingredients For Buckwheat Dosas
-oil for greasing and cooking
-For Serving With Buckwheat Dosas
-green chutney</t>
-  </si>
-  <si>
-    <t>Method
-For buckwheat dosas
-To make buckwheat dosas, combine the buckwheat and urad dal in a mixer and blend to a fine powder.
-Transfer the powder in a deep bowl and keep aside.
-Heat the oil in a small pan and add the mustard seeds.
-When the seeds crackle, add the asafoetida and sauté on a medium flame for a few seconds.
-Add the tempering, green chillies, coriander, salt and approximately 3 ¼ cups of water and mix well.
-Heat a non-stick tava (griddle) and grease it lightly with oil.
-Pour a ladleful of batter in a circular manner. Pour a little oil in the holes of the buckwheat dosa and cook on both the sides till golden brown in colour.
-Repeat step 7 to make 19 more buckwheat dosas.
-Serve the buckwheat dosas immediately with green chutney.</t>
-  </si>
-  <si>
-    <t>Energy 45 cal
-Protein 1.4 g
-Carbohydrates 6.1 g
-Fiber 0.9 g
-Fat 1.7 g
-Cholesterol 0 mg
-Sodium 2.3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/buckwheat-dosa-36424r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6222</t>
-  </si>
-  <si>
-    <t>Anti Cholesterol Shake</t>
-  </si>
-  <si>
-    <t>Low Calorie Quick Recipes</t>
-  </si>
-  <si>
-    <t>For Anti Cholesterol Shake
-2 cups chopped papaya
-3/4 cup orange segments
-3/4 cup chopped bananas
-1/4 tsp vanilla extract or vanilla essence
-20 ice-cubes</t>
-  </si>
-  <si>
-    <t>Method
-For anti cholesterol shake
-To make anti cholesterol shake in a mixer, combine the papaya, orange, banana, vanilla extract or essence and 20 ice cubes.
-Blend till smooth and frothy.
-Serve anti cholesterol shake immediately.</t>
-  </si>
-  <si>
-    <t>Energy 103 cal
-Protein 1.5 g
-Carbohydrates 23.3 g
-Fiber 2.3 g
-Fat 0.3 g
-Cholesterol 0 mg
-Sodium 8.2 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5529</t>
-  </si>
-  <si>
-    <t>Indian Oats Pancake with Jowar</t>
-  </si>
-  <si>
-    <t>Non-stick Pan</t>
-  </si>
-  <si>
-    <t>For Indian Oats Pancake With Jowar
-1/4 cup quick cooking rolled oats
-1/4 cup whole wheat flour (gehun ka atta)
-1/4 cup jowar (white millet) flour
-1/4 cup finely chopped onions
-1/4 cup finely chopped tomatoes
-salt to taste
-1 1/2 tsp ginger-green chilli paste
-2 tbsp chopped coriander (dhania)
-3 tsp peanut oil for greasing and cooking
-For Serving With Indian Oats Pancake With Jowar
-green chutney</t>
-  </si>
-  <si>
-    <t>Method
-For indian oats pancake with jowar
-To make indian oats pancake with jowar, combine all the ingredients in a deep bowl, add approx. ¾ cup of water and mix well to make a thick batter.
-Heat a non-stick tava (griddle) and grease it lightly using ¼ tsp of oil.
-Pour a ladleful of the batter on the tava (griddle) and spread in a circular motion to make a 100 mm. (4”) diameter round pancake.
-Cook on a slow flame till it turns golden brown in colour from both the sides, using ¼ tsp of oil.
-Repeat with the remaining batter to make 3 more pancakes.
-Serve the indian oats pancake with jowar hot with the green chutney.</t>
-  </si>
-  <si>
-    <t>Energy 71 cal
-Protein 1.7 g
-Carbohydrates 9.7 g
-Fiber 1.5 g
-Fat 2.9 g
-Cholesterol 0 mg
-Sodium 3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/indian-oats-pancake-with-jowar-5529r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4623</t>
-  </si>
-  <si>
-    <t>Broccoli Broth, Healthy Clear Broccoli Carrot Soup</t>
-  </si>
-  <si>
-    <t>Kids Recipes for Increasing Immunity</t>
-  </si>
-  <si>
-    <t>For Broccoli Broth
-1 cup broccoli florets
-1 tsp olive oil
-1/2 cup thinly sliced onions
-1/2 tsp finely chopped garlic (lehsun)
-1/2 cup thinly sliced carrots
-2 tbsp finely chopped celery (ajmoda)
-salt and to taste</t>
-  </si>
-  <si>
-    <t>Method
-For broccoli broth
-To make broccoli broth, heat the olive oil in a deep non-stick pan, add the onions, garlic, carrots and celery and sauté on amedium flame for 2 to 3 minutes.
-Add the broccoli, salt and 2½ cups of hot water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
-Add the pepper and mix well.
-Serve the broccoli broth hot.</t>
-  </si>
-  <si>
-    <t>Energy 27 cal
-Protein 0.7 g
-Carbohydrates 3.4 g
-Fiber 1 g
-Fat 1.3 g
-Cholesterol 0 mg
-Sodium 12.1 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/broccoli-broth-healthy-clear-broccoli-carrot-soup-4623r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6434</t>
-  </si>
-  <si>
-    <t>Masale Wali Turai, Turai ki Sabzi</t>
-  </si>
-  <si>
-    <t>Healthy Heart Sabzi</t>
-  </si>
-  <si>
-    <t>For Masalewali Turai
-2 cups thickly sliced ridge gourd (turai)
-2 tsp oil
-1/2 tsp cumin seeds (jeera)
-1/2 cup chopped onions
-1/4 tsp turmeric powder (haldi)
-1 tsp grated ginger (adrak)
-1/2 tsp finely chopped green chillies
-1 3/4 cups fresh tomato pulp , refer handy tip
-1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
-1 tsp chilli powder
-1 tsp dried mango powder (amchur)
-salt to taste
-For The Garnish
-2 tbsp finely chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>13 mins</t>
-  </si>
-  <si>
-    <t>Method
-For masalewali turai
-To make masalewali turai, heat the oil in a non-stick kadhai, add the cumin seeds and sauté on a medium flame for 30 seconds.
-Add the onions and sauté on a medium flame for 1 minute.
-Add the turmeric powder, ginger, green chillies and 1 tbsp of water and sauté on a medium flame for one minute.
-Add the tomato pulp, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
-Add the coriander-cumin seeds powder, chilli powder and dried mango powder, mix well and cook on a medium flame for 1 minute.
-Add the ridge gourd and salt and mix well. Cover with a lid and cook on a medium flame for 8 minutes or till the ridge gourd is cooked, while stirring occasionally.
-Serve the masalewali turai hot garnished with coriander.</t>
-  </si>
-  <si>
-    <t>Energy 59 cal
-Protein 1.4 g
-Carbohydrates 7.2 g
-Fiber 2.8 g
-Fat 2.8 g
-Cholesterol 0 mg
-Sodium 15.3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/masale-wali-turai-turai-ki-sabzi-6434r</t>
+Sodium 6.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-mooli-roti-zero-oil-oats-mooli-roti-22221r</t>
   </si>
   <si>
     <t>No of Recipes</t>
@@ -2670,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:QE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
+      <selection activeCell="DE13" sqref="DE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,175 +2551,157 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AC2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AM2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AO2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AQ2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AS2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AU2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AW2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AY2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="BE2" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="BG2" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="BI2" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="BK2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="BM2" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="BO2" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="BQ2" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="BS2" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="BU2" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="BW2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="BY2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="CA2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="CC2" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="CE2" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="CG2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="CI2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CK2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CM2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CQ2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="CS2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="CU2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="CW2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CY2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="DA2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="DC2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="DE2" t="s">
-        <v>337</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>344</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>351</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>358</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:447" x14ac:dyDescent="0.25">
@@ -2880,175 +2718,157 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AK3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AM3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AO3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AQ3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AS3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AU3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AW3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AY3" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BC3" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="BE3" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="BG3" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="BI3" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="BK3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="BM3" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="BO3" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="BQ3" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="BS3" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="BU3" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="BW3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="BY3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="CA3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="CC3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="CE3" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="CG3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="CI3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CK3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CM3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CO3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CQ3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="CS3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="CU3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CW3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="CY3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="DA3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="DC3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="DE3" t="s">
-        <v>338</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>29</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>345</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>352</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>359</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:447" x14ac:dyDescent="0.25">
@@ -3065,175 +2885,157 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AC4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="AG4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AI4" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="AK4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AM4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AO4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AQ4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AS4" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="AU4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AW4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AY4" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="BC4" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="BE4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="BG4" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="BI4" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="BK4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="BM4" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="BO4" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="BQ4" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="BS4" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="BU4" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="BW4" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="BY4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="CA4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="CC4" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="CE4" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="CG4" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="CI4" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="CK4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CM4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CO4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CQ4" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="CS4" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="CU4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="CW4" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="CY4" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="DA4" t="s">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="DC4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="DE4" t="s">
-        <v>339</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>30</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>37</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>346</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>353</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>360</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>367</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.25">
@@ -3250,175 +3052,157 @@
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AA5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AM5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AO5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AQ5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AS5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AU5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AW5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AY5" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="BC5" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="BE5" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="BG5" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="BI5" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="BK5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="BM5" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="BO5" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="BQ5" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="BS5" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="BU5" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="BW5" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="BY5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="CA5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="CC5" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="CE5" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="CG5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="CI5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="CK5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CM5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CO5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CQ5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="CS5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="CU5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="CW5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CY5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="DA5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="DC5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="DE5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>31</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>347</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>354</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>361</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:447" x14ac:dyDescent="0.25">
@@ -3429,73 +3213,73 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
-      </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s">
         <v>14</v>
       </c>
       <c r="AA6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" t="s">
-        <v>32</v>
-      </c>
       <c r="AE6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" t="s">
         <v>14</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AS6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU6" t="s">
         <v>14</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AW6" t="s">
         <v>14</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>55</v>
       </c>
       <c r="AY6" t="s">
         <v>14</v>
@@ -3507,25 +3291,25 @@
         <v>24</v>
       </c>
       <c r="BE6" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG6" t="s">
         <v>14</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" t="s">
         <v>24</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>14</v>
       </c>
       <c r="BK6" t="s">
         <v>24</v>
       </c>
       <c r="BM6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="BO6" t="s">
         <v>14</v>
       </c>
       <c r="BQ6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="BS6" t="s">
         <v>24</v>
@@ -3534,13 +3318,13 @@
         <v>14</v>
       </c>
       <c r="BW6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="BY6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="CA6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="CC6" t="s">
         <v>14</v>
@@ -3552,58 +3336,40 @@
         <v>24</v>
       </c>
       <c r="CI6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="CK6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="CM6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="CO6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="CQ6" t="s">
         <v>14</v>
       </c>
       <c r="CS6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU6" t="s">
         <v>24</v>
       </c>
-      <c r="CU6" t="s">
+      <c r="CW6" t="s">
+        <v>41</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>24</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>24</v>
+      </c>
+      <c r="DC6" t="s">
         <v>14</v>
       </c>
-      <c r="CW6" t="s">
+      <c r="DE6" t="s">
         <v>14</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>24</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>24</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:447" x14ac:dyDescent="0.25">
@@ -3614,181 +3380,163 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="AI7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AK7" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="AM7" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AO7" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="s">
         <v>24</v>
       </c>
       <c r="AU7" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="AW7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA7" t="s">
         <v>15</v>
       </c>
-      <c r="BA7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ7" t="s">
+      <c r="CC7" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>147</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>267</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>289</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CS7" t="s">
         <v>24</v>
       </c>
-      <c r="BS7" t="s">
-        <v>55</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>229</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>15</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>47</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>14</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>257</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>55</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>14</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>185</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>24</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>292</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>300</v>
-      </c>
       <c r="CU7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="CW7" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="CY7" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="DA7" t="s">
         <v>24</v>
       </c>
       <c r="DC7" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="DE7" t="s">
-        <v>55</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>32</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>39</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>47</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>14</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>369</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:447" x14ac:dyDescent="0.25">
@@ -3805,175 +3553,157 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AA8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AM8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AO8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AQ8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AS8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AU8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AW8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AY8" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="BA8" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="BC8" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="BE8" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="BG8" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="BI8" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="BK8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="BM8" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="BO8" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="BQ8" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="BS8" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="BU8" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="BW8" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="BY8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="CA8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="CC8" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="CE8" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="CG8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CI8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CK8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CM8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CO8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="CQ8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="CS8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="CU8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="CW8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CY8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="DA8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="DC8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="DE8" t="s">
-        <v>341</v>
-      </c>
-      <c r="DG8" t="s">
-        <v>33</v>
-      </c>
-      <c r="DI8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>348</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>355</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>362</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.25">
@@ -3987,178 +3717,160 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AA9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AI9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AM9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AO9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AQ9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AU9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AW9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AY9" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="BA9" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="BC9" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="BE9" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="BG9" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="BI9" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="BK9" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="BM9" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="BO9" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="BQ9" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="BS9" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="BU9" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="BW9" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="BY9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="CA9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="CC9" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="CE9" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="CG9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CI9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CK9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CO9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="CQ9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="CS9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="CU9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="CW9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CY9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="DA9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="DC9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="DE9" t="s">
-        <v>342</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>26</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>41</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>349</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>356</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>363</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.25">
@@ -4327,71 +4039,6 @@
       <c r="DE10" t="s">
         <v>18</v>
       </c>
-      <c r="DG10" t="s">
-        <v>18</v>
-      </c>
-      <c r="DI10" t="s">
-        <v>18</v>
-      </c>
-      <c r="DK10" t="s">
-        <v>18</v>
-      </c>
-      <c r="DM10" t="s">
-        <v>18</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>18</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>18</v>
-      </c>
-      <c r="DS10" s="1"/>
-      <c r="DU10" s="1"/>
-      <c r="DW10" s="1"/>
-      <c r="DY10" s="1"/>
-      <c r="EA10" s="1"/>
-      <c r="EC10" s="1"/>
-      <c r="EE10" s="1"/>
-      <c r="EG10" s="1"/>
-      <c r="EI10" s="1"/>
-      <c r="EK10" s="1"/>
-      <c r="EM10" s="1"/>
-      <c r="EO10" s="1"/>
-      <c r="EQ10" s="1"/>
-      <c r="ES10" s="1"/>
-      <c r="EU10" s="1"/>
-      <c r="EW10" s="1"/>
-      <c r="EY10" s="1"/>
-      <c r="FA10" s="1"/>
-      <c r="FC10" s="1"/>
-      <c r="FE10" s="1"/>
-      <c r="FG10" s="1"/>
-      <c r="FI10" s="1"/>
-      <c r="FK10" s="1"/>
-      <c r="FM10" s="1"/>
-      <c r="FO10" s="1"/>
-      <c r="FQ10" s="1"/>
-      <c r="FS10" s="1"/>
-      <c r="FU10" s="1"/>
-      <c r="FW10" s="1"/>
-      <c r="FY10" s="1"/>
-      <c r="GA10" s="1"/>
-      <c r="GC10" s="1"/>
-      <c r="GE10" s="1"/>
-      <c r="GG10" s="1"/>
-      <c r="GI10" s="1"/>
-      <c r="GK10" s="1"/>
-      <c r="GM10" s="1"/>
-      <c r="GO10" s="1"/>
-      <c r="GQ10" s="1"/>
-      <c r="GS10" s="1"/>
-      <c r="GU10" s="1"/>
-      <c r="GW10" s="1"/>
-      <c r="GY10" s="1"/>
-      <c r="HA10" s="1"/>
-      <c r="HC10" s="1"/>
-      <c r="HE10" s="1"/>
-      <c r="HG10" s="1"/>
       <c r="HI10" s="1"/>
       <c r="HK10" s="1"/>
       <c r="HM10" s="1"/>
@@ -4520,183 +4167,165 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AI11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AQ11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AS11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AU11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AW11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AY11" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="BA11" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="BC11" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="BE11" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="BG11" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="BI11" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="BK11" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BM11" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="BO11" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="BQ11" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="BS11" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="BU11" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="BW11" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="BY11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="CA11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="CC11" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="CE11" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="CG11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="CI11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CK11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CM11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CO11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CQ11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="CS11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="CU11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="CW11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CY11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="DA11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="DC11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="DE11" t="s">
-        <v>343</v>
-      </c>
-      <c r="DG11" t="s">
-        <v>34</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>42</v>
-      </c>
-      <c r="DK11" t="s">
-        <v>350</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>357</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>364</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4860,23 +4489,14 @@
       <c r="DE13">
         <v>54</v>
       </c>
-      <c r="DG13">
-        <v>55</v>
-      </c>
-      <c r="DI13">
-        <v>56</v>
-      </c>
-      <c r="DK13">
-        <v>57</v>
-      </c>
-      <c r="DM13">
-        <v>58</v>
-      </c>
-      <c r="DO13">
-        <v>59</v>
-      </c>
-      <c r="DQ13">
-        <v>60</v>
+      <c r="DY13">
+        <v>64</v>
+      </c>
+      <c r="EA13">
+        <v>65</v>
+      </c>
+      <c r="EC13">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
